--- a/data/final_data/manually_cleaned_data.xlsx
+++ b/data/final_data/manually_cleaned_data.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahgross/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahgross/Desktop/W241/Final Project/Olive_Oil_Taste_Test/data/final_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D2D91E-01BA-294C-B19C-5502E2EC02FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CD54E9-3CA0-EF47-81FE-8BD6E1BDCCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="500" windowWidth="18940" windowHeight="14900" xr2:uid="{49F459C7-6492-B94F-B44D-4BE8CD6D4D26}"/>
+    <workbookView xWindow="10180" yWindow="600" windowWidth="18940" windowHeight="14900" xr2:uid="{49F459C7-6492-B94F-B44D-4BE8CD6D4D26}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="Only Tested" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All!$A$1:$T$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All!$A$1:$U$97</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="235">
   <si>
     <t>admin</t>
   </si>
@@ -741,6 +741,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>sex</t>
   </si>
 </sst>
 </file>
@@ -771,18 +774,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -800,9 +797,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1118,11 +1115,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADBB74E-D12A-8C49-88BF-474E0A7757AC}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:T97"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1132,19 +1131,19 @@
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" customWidth="1"/>
-    <col min="22" max="22" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" customWidth="1"/>
+    <col min="23" max="23" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -1182,32 +1181,35 @@
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>114</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>113</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
@@ -1234,20 +1236,20 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
         <v>156</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>157</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>110</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -1255,9 +1257,12 @@
       <c r="T2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="U2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
@@ -1282,32 +1287,35 @@
         <v>172</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
         <v>156</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>157</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>111</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
@@ -1340,30 +1348,33 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
         <v>156</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>157</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>111</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
@@ -1388,32 +1399,35 @@
         <v>159</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
         <v>156</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>157</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>110</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
       <c r="R5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
@@ -1438,22 +1452,22 @@
         <v>155</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
         <v>156</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>157</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>111</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
       <c r="R6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>2</v>
@@ -1461,9 +1475,12 @@
       <c r="T6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="U6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
@@ -1488,32 +1505,35 @@
         <v>163</v>
       </c>
       <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
         <v>156</v>
       </c>
-      <c r="O7" t="s">
-        <v>154</v>
-      </c>
       <c r="P7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q7" t="s">
         <v>111</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
         <v>112</v>
       </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
       <c r="T7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
@@ -1540,30 +1560,33 @@
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
         <v>156</v>
       </c>
-      <c r="O8" t="s">
-        <v>154</v>
-      </c>
       <c r="P8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q8" t="s">
         <v>111</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
       <c r="R8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
@@ -1588,31 +1611,34 @@
         <v>159</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
         <v>156</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>157</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>111</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
       <c r="R9">
         <v>1</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1631,29 +1657,29 @@
       <c r="H10" t="s">
         <v>154</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>158</v>
       </c>
       <c r="L10" t="s">
         <v>159</v>
       </c>
       <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
         <v>160</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>157</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>110</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
       <c r="R10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>2</v>
@@ -1661,8 +1687,11 @@
       <c r="T10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1690,20 +1719,20 @@
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>157</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>110</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
       <c r="R11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S11">
         <v>2</v>
@@ -1711,8 +1740,11 @@
       <c r="T11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1737,8 +1769,8 @@
       <c r="H12" t="s">
         <v>154</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
         <v>221</v>
       </c>
       <c r="K12">
@@ -1748,31 +1780,34 @@
         <v>159</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
         <v>156</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>157</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>110</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
       <c r="R12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1797,8 +1832,8 @@
       <c r="H13" t="s">
         <v>154</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
         <v>222</v>
       </c>
       <c r="K13">
@@ -1810,29 +1845,32 @@
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
         <v>156</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>157</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>110</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
       <c r="R13">
         <v>1</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1852,38 +1890,41 @@
         <v>159</v>
       </c>
       <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="O14" t="s">
-        <v>154</v>
-      </c>
       <c r="P14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q14" t="s">
         <v>111</v>
       </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
       <c r="R14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>147</v>
       </c>
       <c r="E15">
@@ -1904,29 +1945,32 @@
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="O15" t="s">
-        <v>154</v>
-      </c>
       <c r="P15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q15" t="s">
         <v>110</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1954,29 +1998,32 @@
       <c r="M16">
         <v>0</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>157</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>110</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
       <c r="R16">
-        <v>2</v>
-      </c>
-      <c r="S16" t="s">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s">
         <v>112</v>
       </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1998,29 +2045,32 @@
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>157</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>111</v>
       </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
       <c r="R17">
         <v>1</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2039,29 +2089,29 @@
       <c r="H18" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="1" t="s">
         <v>161</v>
       </c>
       <c r="L18" t="s">
         <v>159</v>
       </c>
       <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
         <v>156</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>157</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>111</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -2069,8 +2119,11 @@
       <c r="T18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2089,29 +2142,29 @@
       <c r="H19" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="1" t="s">
         <v>162</v>
       </c>
       <c r="L19" t="s">
         <v>163</v>
       </c>
       <c r="M19">
-        <v>2</v>
-      </c>
-      <c r="N19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19" t="s">
         <v>164</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>157</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>111</v>
       </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
       <c r="R19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <v>2</v>
@@ -2119,8 +2172,11 @@
       <c r="T19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2133,14 +2189,14 @@
       <c r="F20" t="s">
         <v>106</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>110</v>
       </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2153,14 +2209,14 @@
       <c r="F21" t="s">
         <v>106</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>110</v>
       </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2173,14 +2229,14 @@
       <c r="F22" t="s">
         <v>106</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>110</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2193,14 +2249,14 @@
       <c r="F23" t="s">
         <v>106</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>111</v>
       </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2213,14 +2269,14 @@
       <c r="F24" t="s">
         <v>106</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>111</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2233,14 +2289,14 @@
       <c r="F25" t="s">
         <v>106</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>111</v>
       </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2253,14 +2309,14 @@
       <c r="F26" t="s">
         <v>106</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>110</v>
       </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2273,14 +2329,14 @@
       <c r="F27" t="s">
         <v>106</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>110</v>
       </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2312,22 +2368,22 @@
         <v>155</v>
       </c>
       <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
         <v>165</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>157</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>110</v>
       </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
       <c r="R28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S28">
         <v>2</v>
@@ -2335,8 +2391,11 @@
       <c r="T28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2370,29 +2429,32 @@
       <c r="M29">
         <v>1</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
         <v>173</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>157</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>110</v>
       </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
       <c r="R29">
         <v>1</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -2417,8 +2479,8 @@
       <c r="H30" t="s">
         <v>154</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2" t="s">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K30">
@@ -2428,31 +2490,34 @@
         <v>166</v>
       </c>
       <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
         <v>160</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>157</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>111</v>
       </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
       <c r="R30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2477,38 +2542,41 @@
       <c r="H31" t="s">
         <v>154</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="1" t="s">
         <v>167</v>
       </c>
       <c r="L31" t="s">
         <v>159</v>
       </c>
       <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
         <v>3</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>160</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>157</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>111</v>
       </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
       <c r="R31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>2</v>
       </c>
       <c r="T31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2533,27 +2601,27 @@
       <c r="H32" t="s">
         <v>154</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="1" t="s">
         <v>168</v>
       </c>
       <c r="L32" t="s">
         <v>159</v>
       </c>
       <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
         <v>160</v>
       </c>
-      <c r="O32" t="s">
-        <v>154</v>
-      </c>
       <c r="P32" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q32" t="s">
         <v>110</v>
       </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
       <c r="R32">
         <v>1</v>
       </c>
@@ -2561,10 +2629,13 @@
         <v>1</v>
       </c>
       <c r="T32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2589,7 +2660,7 @@
       <c r="H33" t="s">
         <v>154</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="1" t="s">
         <v>169</v>
       </c>
       <c r="L33" t="s">
@@ -2598,29 +2669,32 @@
       <c r="M33">
         <v>0</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
         <v>170</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>157</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>110</v>
       </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
       <c r="R33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -2654,18 +2728,18 @@
       <c r="M34">
         <v>0</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
         <v>160</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>157</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>111</v>
       </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
       <c r="R34">
         <v>1</v>
       </c>
@@ -2673,10 +2747,13 @@
         <v>1</v>
       </c>
       <c r="T34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2701,38 +2778,41 @@
       <c r="H35" t="s">
         <v>154</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="1" t="s">
         <v>171</v>
       </c>
       <c r="L35" t="s">
         <v>172</v>
       </c>
       <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
         <v>173</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>157</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>110</v>
       </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
       <c r="R35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2757,7 +2837,7 @@
       <c r="H36" t="s">
         <v>154</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="1" t="s">
         <v>174</v>
       </c>
       <c r="L36" t="s">
@@ -2766,29 +2846,32 @@
       <c r="M36">
         <v>0</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
         <v>175</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>157</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>110</v>
       </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
       <c r="R36">
         <v>1</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2813,38 +2896,41 @@
       <c r="H37" t="s">
         <v>154</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="1" t="s">
         <v>176</v>
       </c>
       <c r="L37" t="s">
         <v>163</v>
       </c>
       <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
         <v>160</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>157</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>111</v>
       </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
       <c r="R37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -2869,38 +2955,41 @@
       <c r="H38" t="s">
         <v>154</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="1" t="s">
         <v>177</v>
       </c>
       <c r="L38" t="s">
         <v>155</v>
       </c>
       <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
         <v>160</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>157</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>110</v>
       </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38" t="s">
         <v>112</v>
       </c>
-      <c r="S38">
-        <v>2</v>
-      </c>
       <c r="T38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -2928,23 +3017,20 @@
       <c r="L39" t="s">
         <v>166</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
         <v>178</v>
       </c>
-      <c r="O39" t="s">
-        <v>154</v>
-      </c>
       <c r="P39" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q39" t="s">
         <v>111</v>
       </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
       <c r="R39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S39">
         <v>2</v>
@@ -2952,8 +3038,11 @@
       <c r="T39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -2982,31 +3071,34 @@
         <v>159</v>
       </c>
       <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
         <v>160</v>
       </c>
-      <c r="O40" t="s">
-        <v>154</v>
-      </c>
       <c r="P40" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q40" t="s">
         <v>110</v>
       </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
       <c r="R40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -3031,27 +3123,27 @@
       <c r="H41" t="s">
         <v>154</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="1" t="s">
         <v>179</v>
       </c>
       <c r="L41" t="s">
         <v>159</v>
       </c>
       <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41" t="s">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
         <v>160</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>157</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>111</v>
       </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
       <c r="R41">
         <v>1</v>
       </c>
@@ -3059,10 +3151,13 @@
         <v>1</v>
       </c>
       <c r="T41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -3087,8 +3182,8 @@
       <c r="H42" t="s">
         <v>154</v>
       </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2" t="s">
+      <c r="I42" s="1"/>
+      <c r="J42" s="1" t="s">
         <v>224</v>
       </c>
       <c r="K42">
@@ -3098,31 +3193,34 @@
         <v>155</v>
       </c>
       <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
         <v>160</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>157</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>111</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42" t="s">
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42" t="s">
         <v>112</v>
       </c>
-      <c r="S42">
-        <v>2</v>
-      </c>
       <c r="T42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -3147,7 +3245,7 @@
       <c r="H43" t="s">
         <v>154</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="1" t="s">
         <v>180</v>
       </c>
       <c r="L43" t="s">
@@ -3156,29 +3254,32 @@
       <c r="M43">
         <v>0</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
         <v>181</v>
       </c>
-      <c r="O43" t="s">
-        <v>154</v>
-      </c>
       <c r="P43" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q43" t="s">
         <v>110</v>
       </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
       <c r="R43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -3188,7 +3289,7 @@
       <c r="C44" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E44">
@@ -3203,7 +3304,7 @@
       <c r="H44" t="s">
         <v>154</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="1" t="s">
         <v>150</v>
       </c>
       <c r="K44">
@@ -3215,29 +3316,32 @@
       <c r="M44">
         <v>0</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
         <v>160</v>
       </c>
-      <c r="O44" t="s">
-        <v>154</v>
-      </c>
       <c r="P44" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q44" t="s">
         <v>110</v>
       </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
       <c r="R44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -3262,7 +3366,7 @@
       <c r="H45" t="s">
         <v>154</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J45" s="1" t="s">
         <v>182</v>
       </c>
       <c r="L45" t="s">
@@ -3271,29 +3375,32 @@
       <c r="M45">
         <v>0</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
         <v>184</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>157</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>110</v>
       </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
       <c r="R45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -3325,31 +3432,34 @@
         <v>159</v>
       </c>
       <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46" t="s">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
         <v>160</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>157</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>111</v>
       </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
       <c r="R46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -3374,27 +3484,27 @@
       <c r="H47" t="s">
         <v>154</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="1" t="s">
         <v>185</v>
       </c>
       <c r="L47" t="s">
         <v>186</v>
       </c>
       <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47" t="s">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
         <v>160</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>157</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>111</v>
       </c>
-      <c r="Q47">
-        <v>1</v>
-      </c>
       <c r="R47">
         <v>1</v>
       </c>
@@ -3402,10 +3512,13 @@
         <v>1</v>
       </c>
       <c r="T47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -3430,29 +3543,29 @@
       <c r="H48" t="s">
         <v>154</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="1" t="s">
         <v>187</v>
       </c>
       <c r="L48" t="s">
         <v>155</v>
       </c>
       <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48" t="s">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
         <v>217</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>157</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>111</v>
       </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
       <c r="R48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48">
         <v>1</v>
@@ -3460,8 +3573,11 @@
       <c r="T48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -3486,38 +3602,41 @@
       <c r="H49" t="s">
         <v>154</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="1" t="s">
         <v>188</v>
       </c>
       <c r="L49" t="s">
         <v>163</v>
       </c>
       <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49" t="s">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
         <v>160</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>157</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>111</v>
       </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
       <c r="R49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -3542,7 +3661,7 @@
       <c r="H50" t="s">
         <v>154</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="1" t="s">
         <v>189</v>
       </c>
       <c r="L50" t="s">
@@ -3551,18 +3670,18 @@
       <c r="M50">
         <v>0</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
         <v>218</v>
       </c>
-      <c r="O50" t="s">
-        <v>154</v>
-      </c>
       <c r="P50" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q50" t="s">
         <v>111</v>
       </c>
-      <c r="Q50">
-        <v>1</v>
-      </c>
       <c r="R50">
         <v>1</v>
       </c>
@@ -3570,10 +3689,13 @@
         <v>1</v>
       </c>
       <c r="T50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -3598,7 +3720,7 @@
       <c r="H51" t="s">
         <v>154</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="1" t="s">
         <v>225</v>
       </c>
       <c r="K51">
@@ -3610,29 +3732,32 @@
       <c r="M51">
         <v>0</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
         <v>160</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>157</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>111</v>
       </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
       <c r="R51">
         <v>1</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -3657,27 +3782,27 @@
       <c r="H52" t="s">
         <v>154</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="1" t="s">
         <v>190</v>
       </c>
       <c r="L52" t="s">
         <v>163</v>
       </c>
       <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52" t="s">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
         <v>160</v>
       </c>
-      <c r="O52" t="s">
-        <v>154</v>
-      </c>
       <c r="P52" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q52" t="s">
         <v>110</v>
       </c>
-      <c r="Q52">
-        <v>1</v>
-      </c>
       <c r="R52">
         <v>1</v>
       </c>
@@ -3685,10 +3810,13 @@
         <v>1</v>
       </c>
       <c r="T52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -3713,7 +3841,7 @@
       <c r="H53" t="s">
         <v>154</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" s="1" t="s">
         <v>191</v>
       </c>
       <c r="L53" t="s">
@@ -3722,29 +3850,32 @@
       <c r="M53">
         <v>0</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
         <v>160</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>157</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>111</v>
       </c>
-      <c r="Q53">
-        <v>1</v>
-      </c>
       <c r="R53">
         <v>1</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -3757,14 +3888,14 @@
       <c r="F54" t="s">
         <v>109</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>111</v>
       </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -3777,14 +3908,14 @@
       <c r="F55" t="s">
         <v>109</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>111</v>
       </c>
-      <c r="Q55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3809,38 +3940,41 @@
       <c r="H56" t="s">
         <v>154</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="1" t="s">
         <v>192</v>
       </c>
       <c r="L56" t="s">
         <v>163</v>
       </c>
       <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56" t="s">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
         <v>160</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>157</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>110</v>
       </c>
-      <c r="Q56">
-        <v>1</v>
-      </c>
       <c r="R56">
         <v>1</v>
       </c>
       <c r="S56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -3865,7 +3999,7 @@
       <c r="H57" t="s">
         <v>154</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J57" s="1" t="s">
         <v>193</v>
       </c>
       <c r="L57" t="s">
@@ -3874,29 +4008,32 @@
       <c r="M57">
         <v>0</v>
       </c>
-      <c r="N57" t="s">
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
         <v>160</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>157</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>111</v>
       </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
       <c r="R57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -3921,8 +4058,8 @@
       <c r="H58" t="s">
         <v>154</v>
       </c>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2" t="s">
+      <c r="I58" s="1"/>
+      <c r="J58" s="1" t="s">
         <v>226</v>
       </c>
       <c r="K58">
@@ -3932,31 +4069,34 @@
         <v>159</v>
       </c>
       <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
         <v>160</v>
       </c>
-      <c r="O58" t="s">
-        <v>154</v>
-      </c>
       <c r="P58" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q58" t="s">
         <v>110</v>
       </c>
-      <c r="Q58">
-        <v>1</v>
-      </c>
       <c r="R58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -3990,29 +4130,32 @@
       <c r="M59">
         <v>0</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
         <v>160</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>157</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>111</v>
       </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
       <c r="R59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -4037,7 +4180,7 @@
       <c r="H60" t="s">
         <v>154</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="J60" s="1" t="s">
         <v>194</v>
       </c>
       <c r="L60" t="s">
@@ -4046,29 +4189,32 @@
       <c r="M60">
         <v>0</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60" t="s">
         <v>160</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>157</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>110</v>
       </c>
-      <c r="Q60">
-        <v>1</v>
-      </c>
       <c r="R60">
         <v>1</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -4093,7 +4239,7 @@
       <c r="H61" t="s">
         <v>154</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="J61" s="1" t="s">
         <v>227</v>
       </c>
       <c r="K61">
@@ -4105,18 +4251,18 @@
       <c r="M61">
         <v>0</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
         <v>160</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>157</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>110</v>
       </c>
-      <c r="Q61">
-        <v>1</v>
-      </c>
       <c r="R61">
         <v>1</v>
       </c>
@@ -4126,8 +4272,11 @@
       <c r="T61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -4152,7 +4301,7 @@
       <c r="H62" t="s">
         <v>157</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="1" t="s">
         <v>195</v>
       </c>
       <c r="L62" t="s">
@@ -4161,29 +4310,32 @@
       <c r="M62">
         <v>0</v>
       </c>
-      <c r="N62" t="s">
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" t="s">
         <v>165</v>
       </c>
-      <c r="O62" t="s">
-        <v>154</v>
-      </c>
       <c r="P62" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q62" t="s">
         <v>110</v>
       </c>
-      <c r="Q62">
-        <v>1</v>
-      </c>
       <c r="R62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -4215,31 +4367,34 @@
         <v>172</v>
       </c>
       <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63" t="s">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
         <v>160</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>157</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>110</v>
       </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
       <c r="R63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -4264,29 +4419,29 @@
       <c r="H64" t="s">
         <v>154</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" s="1" t="s">
         <v>196</v>
       </c>
       <c r="L64" t="s">
         <v>172</v>
       </c>
       <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64" t="s">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
         <v>160</v>
       </c>
-      <c r="O64" t="s">
-        <v>154</v>
-      </c>
       <c r="P64" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q64" t="s">
         <v>110</v>
       </c>
-      <c r="Q64">
-        <v>1</v>
-      </c>
       <c r="R64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S64">
         <v>2</v>
@@ -4294,8 +4449,11 @@
       <c r="T64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -4320,38 +4478,41 @@
       <c r="H65" t="s">
         <v>154</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J65" s="1" t="s">
         <v>197</v>
       </c>
       <c r="L65" t="s">
         <v>155</v>
       </c>
       <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65" t="s">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
         <v>160</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>157</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>110</v>
       </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
       <c r="R65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
       <c r="T65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -4376,38 +4537,41 @@
       <c r="H66" t="s">
         <v>154</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J66" s="1" t="s">
         <v>198</v>
       </c>
       <c r="L66" t="s">
         <v>186</v>
       </c>
       <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66" t="s">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
         <v>160</v>
       </c>
-      <c r="O66" t="s">
-        <v>154</v>
-      </c>
       <c r="P66" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q66" t="s">
         <v>110</v>
       </c>
-      <c r="Q66">
-        <v>1</v>
-      </c>
       <c r="R66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -4432,7 +4596,7 @@
       <c r="H67" t="s">
         <v>154</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="J67" s="1" t="s">
         <v>228</v>
       </c>
       <c r="K67">
@@ -4442,22 +4606,22 @@
         <v>186</v>
       </c>
       <c r="M67">
-        <v>2</v>
-      </c>
-      <c r="N67" t="s">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
         <v>160</v>
       </c>
-      <c r="O67" t="s">
-        <v>154</v>
-      </c>
       <c r="P67" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q67" t="s">
         <v>111</v>
       </c>
-      <c r="Q67">
-        <v>1</v>
-      </c>
       <c r="R67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S67">
         <v>2</v>
@@ -4465,8 +4629,11 @@
       <c r="T67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -4491,38 +4658,41 @@
       <c r="H68" t="s">
         <v>154</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="J68" s="1" t="s">
         <v>199</v>
       </c>
       <c r="L68" t="s">
         <v>186</v>
       </c>
       <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68" t="s">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68" t="s">
         <v>175</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>157</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>111</v>
       </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
       <c r="R68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68">
         <v>1</v>
       </c>
       <c r="T68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -4547,7 +4717,7 @@
       <c r="H69" t="s">
         <v>154</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J69" s="1" t="s">
         <v>200</v>
       </c>
       <c r="L69" t="s">
@@ -4556,18 +4726,18 @@
       <c r="M69">
         <v>0</v>
       </c>
-      <c r="N69" t="s">
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
         <v>160</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>157</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>110</v>
       </c>
-      <c r="Q69">
-        <v>1</v>
-      </c>
       <c r="R69">
         <v>1</v>
       </c>
@@ -4575,10 +4745,13 @@
         <v>1</v>
       </c>
       <c r="T69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -4603,38 +4776,41 @@
       <c r="H70" t="s">
         <v>154</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J70" s="1" t="s">
         <v>201</v>
       </c>
       <c r="L70" t="s">
         <v>186</v>
       </c>
       <c r="M70">
-        <v>1</v>
-      </c>
-      <c r="N70" t="s">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
         <v>160</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>157</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>111</v>
       </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70" t="s">
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70" t="s">
         <v>112</v>
       </c>
-      <c r="S70">
-        <v>1</v>
-      </c>
       <c r="T70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -4659,7 +4835,7 @@
       <c r="H71" t="s">
         <v>154</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="J71" s="1" t="s">
         <v>229</v>
       </c>
       <c r="K71">
@@ -4669,31 +4845,34 @@
         <v>186</v>
       </c>
       <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="N71" t="s">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
         <v>160</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>202</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>110</v>
       </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
       <c r="R71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -4706,14 +4885,17 @@
       <c r="F72" t="s">
         <v>107</v>
       </c>
-      <c r="P72" t="s">
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="s">
         <v>110</v>
       </c>
-      <c r="Q72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -4738,7 +4920,7 @@
       <c r="H73" t="s">
         <v>154</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="J73" s="1" t="s">
         <v>230</v>
       </c>
       <c r="K73">
@@ -4748,31 +4930,34 @@
         <v>155</v>
       </c>
       <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73" t="s">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
         <v>173</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>157</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>111</v>
       </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
       <c r="R73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -4797,7 +4982,7 @@
       <c r="H74" t="s">
         <v>154</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="1" t="s">
         <v>231</v>
       </c>
       <c r="K74">
@@ -4809,29 +4994,32 @@
       <c r="M74">
         <v>0</v>
       </c>
-      <c r="N74" t="s">
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
         <v>160</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>157</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>111</v>
       </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74" t="s">
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74" t="s">
         <v>112</v>
       </c>
-      <c r="S74">
-        <v>1</v>
-      </c>
       <c r="T74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -4856,38 +5044,41 @@
       <c r="H75" t="s">
         <v>154</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="J75" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L75" t="s">
         <v>183</v>
       </c>
       <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75" t="s">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
         <v>160</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>157</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>110</v>
       </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
       <c r="R75">
-        <v>1</v>
-      </c>
-      <c r="S75" t="s">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s">
         <v>112</v>
       </c>
-      <c r="T75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -4900,14 +5091,14 @@
       <c r="F76" t="s">
         <v>108</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>111</v>
       </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -4920,14 +5111,14 @@
       <c r="F77" t="s">
         <v>108</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
         <v>111</v>
       </c>
-      <c r="Q77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -4940,14 +5131,14 @@
       <c r="F78" t="s">
         <v>108</v>
       </c>
-      <c r="P78" t="s">
+      <c r="Q78" t="s">
         <v>110</v>
       </c>
-      <c r="Q78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -4960,14 +5151,14 @@
       <c r="F79" t="s">
         <v>108</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>111</v>
       </c>
-      <c r="Q79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -4980,14 +5171,14 @@
       <c r="F80" t="s">
         <v>108</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>110</v>
       </c>
-      <c r="Q80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>89</v>
       </c>
@@ -5000,14 +5191,14 @@
       <c r="F81" t="s">
         <v>108</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" t="s">
         <v>111</v>
       </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -5020,14 +5211,14 @@
       <c r="F82" t="s">
         <v>108</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>110</v>
       </c>
-      <c r="Q82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -5040,14 +5231,14 @@
       <c r="F83" t="s">
         <v>108</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
         <v>111</v>
       </c>
-      <c r="Q83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -5072,38 +5263,41 @@
       <c r="H84" t="s">
         <v>154</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="J84" s="1" t="s">
         <v>204</v>
       </c>
       <c r="L84" t="s">
         <v>172</v>
       </c>
       <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
         <v>3</v>
       </c>
-      <c r="N84" t="s">
+      <c r="O84" t="s">
         <v>160</v>
       </c>
-      <c r="O84" t="s">
+      <c r="P84" t="s">
         <v>157</v>
       </c>
-      <c r="P84" t="s">
+      <c r="Q84" t="s">
         <v>110</v>
       </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
       <c r="R84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S84">
         <v>1</v>
       </c>
       <c r="T84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -5128,7 +5322,7 @@
       <c r="H85" t="s">
         <v>154</v>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="J85" s="1" t="s">
         <v>205</v>
       </c>
       <c r="L85" t="s">
@@ -5137,18 +5331,18 @@
       <c r="M85">
         <v>0</v>
       </c>
-      <c r="N85" t="s">
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85" t="s">
         <v>206</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>157</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="s">
         <v>110</v>
       </c>
-      <c r="Q85">
-        <v>1</v>
-      </c>
       <c r="R85">
         <v>1</v>
       </c>
@@ -5156,10 +5350,13 @@
         <v>1</v>
       </c>
       <c r="T85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -5184,38 +5381,41 @@
       <c r="H86" t="s">
         <v>154</v>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="J86" s="1" t="s">
         <v>207</v>
       </c>
       <c r="L86" t="s">
         <v>172</v>
       </c>
       <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86" t="s">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86" t="s">
         <v>173</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>157</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>111</v>
       </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
       <c r="R86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S86">
         <v>1</v>
       </c>
       <c r="T86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -5249,29 +5449,32 @@
       <c r="M87">
         <v>0</v>
       </c>
-      <c r="N87" t="s">
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87" t="s">
         <v>165</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>157</v>
       </c>
-      <c r="P87" t="s">
+      <c r="Q87" t="s">
         <v>110</v>
       </c>
-      <c r="Q87">
-        <v>1</v>
-      </c>
       <c r="R87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -5296,7 +5499,7 @@
       <c r="H88" t="s">
         <v>154</v>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="J88" s="1" t="s">
         <v>208</v>
       </c>
       <c r="L88" t="s">
@@ -5305,18 +5508,18 @@
       <c r="M88">
         <v>0</v>
       </c>
-      <c r="N88" t="s">
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
         <v>160</v>
       </c>
-      <c r="O88" t="s">
-        <v>154</v>
-      </c>
       <c r="P88" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q88" t="s">
         <v>110</v>
       </c>
-      <c r="Q88">
-        <v>1</v>
-      </c>
       <c r="R88">
         <v>1</v>
       </c>
@@ -5324,10 +5527,13 @@
         <v>1</v>
       </c>
       <c r="T88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -5352,29 +5558,29 @@
       <c r="H89" t="s">
         <v>154</v>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="J89" s="1" t="s">
         <v>209</v>
       </c>
       <c r="L89" t="s">
         <v>159</v>
       </c>
       <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
         <v>3</v>
       </c>
-      <c r="N89" t="s">
+      <c r="O89" t="s">
         <v>175</v>
       </c>
-      <c r="O89" t="s">
+      <c r="P89" t="s">
         <v>157</v>
       </c>
-      <c r="P89" t="s">
+      <c r="Q89" t="s">
         <v>110</v>
       </c>
-      <c r="Q89">
-        <v>1</v>
-      </c>
       <c r="R89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S89">
         <v>2</v>
@@ -5382,8 +5588,11 @@
       <c r="T89">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -5408,7 +5617,7 @@
       <c r="H90" t="s">
         <v>154</v>
       </c>
-      <c r="J90" s="2" t="s">
+      <c r="J90" s="1" t="s">
         <v>232</v>
       </c>
       <c r="K90">
@@ -5418,31 +5627,34 @@
         <v>159</v>
       </c>
       <c r="M90">
-        <v>0</v>
-      </c>
-      <c r="N90" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="O90" t="s">
+      <c r="P90" t="s">
         <v>157</v>
       </c>
-      <c r="P90" t="s">
+      <c r="Q90" t="s">
         <v>111</v>
       </c>
-      <c r="Q90">
-        <v>1</v>
-      </c>
       <c r="R90">
         <v>1</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T90">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -5467,38 +5679,41 @@
       <c r="H91" t="s">
         <v>154</v>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="J91" s="1" t="s">
         <v>210</v>
       </c>
       <c r="L91" t="s">
         <v>166</v>
       </c>
       <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="O91" t="s">
+      <c r="P91" t="s">
         <v>157</v>
       </c>
-      <c r="P91" t="s">
+      <c r="Q91" t="s">
         <v>110</v>
       </c>
-      <c r="Q91">
-        <v>1</v>
-      </c>
       <c r="R91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S91">
         <v>2</v>
       </c>
       <c r="T91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>100</v>
       </c>
@@ -5523,38 +5738,41 @@
       <c r="H92" t="s">
         <v>154</v>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="J92" s="1" t="s">
         <v>211</v>
       </c>
       <c r="L92" t="s">
         <v>159</v>
       </c>
       <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
         <v>3</v>
       </c>
-      <c r="N92" t="s">
+      <c r="O92" t="s">
         <v>175</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
         <v>157</v>
       </c>
-      <c r="P92" t="s">
+      <c r="Q92" t="s">
         <v>110</v>
       </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
       <c r="R92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>101</v>
       </c>
@@ -5579,7 +5797,7 @@
       <c r="H93" t="s">
         <v>154</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="J93" s="1" t="s">
         <v>212</v>
       </c>
       <c r="L93" t="s">
@@ -5588,29 +5806,32 @@
       <c r="M93">
         <v>0</v>
       </c>
-      <c r="N93" t="s">
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93" t="s">
         <v>213</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
         <v>157</v>
       </c>
-      <c r="P93" t="s">
+      <c r="Q93" t="s">
         <v>111</v>
       </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
       <c r="R93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T93">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>102</v>
       </c>
@@ -5635,38 +5856,41 @@
       <c r="H94" t="s">
         <v>154</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="J94" s="1" t="s">
         <v>214</v>
       </c>
       <c r="L94" t="s">
         <v>159</v>
       </c>
       <c r="M94">
-        <v>2</v>
-      </c>
-      <c r="N94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" t="s">
         <v>157</v>
       </c>
-      <c r="P94" t="s">
+      <c r="Q94" t="s">
         <v>110</v>
       </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
       <c r="R94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S94">
         <v>1</v>
       </c>
       <c r="T94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>103</v>
       </c>
@@ -5689,31 +5913,34 @@
         <v>159</v>
       </c>
       <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="N95" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="O95" t="s">
+      <c r="P95" t="s">
         <v>157</v>
       </c>
-      <c r="P95" t="s">
+      <c r="Q95" t="s">
         <v>111</v>
       </c>
-      <c r="Q95">
-        <v>1</v>
-      </c>
       <c r="R95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>104</v>
       </c>
@@ -5738,38 +5965,41 @@
       <c r="H96" t="s">
         <v>154</v>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" s="1" t="s">
         <v>215</v>
       </c>
       <c r="L96" t="s">
         <v>159</v>
       </c>
       <c r="M96">
-        <v>1</v>
-      </c>
-      <c r="N96" t="s">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
         <v>184</v>
       </c>
-      <c r="O96" t="s">
+      <c r="P96" t="s">
         <v>157</v>
       </c>
-      <c r="P96" t="s">
+      <c r="Q96" t="s">
         <v>110</v>
       </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
       <c r="R96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>105</v>
       </c>
@@ -5794,45 +6024,42 @@
       <c r="H97" t="s">
         <v>154</v>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="J97" s="1" t="s">
         <v>216</v>
       </c>
       <c r="L97" t="s">
         <v>159</v>
       </c>
       <c r="M97">
-        <v>2</v>
-      </c>
-      <c r="N97" t="s">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97" t="s">
         <v>156</v>
       </c>
-      <c r="O97" t="s">
+      <c r="P97" t="s">
         <v>157</v>
       </c>
-      <c r="P97" t="s">
+      <c r="Q97" t="s">
         <v>111</v>
       </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97" t="s">
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97" t="s">
         <v>112</v>
       </c>
-      <c r="S97">
-        <v>2</v>
-      </c>
       <c r="T97">
+        <v>2</v>
+      </c>
+      <c r="U97">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T97" xr:uid="{9ADBB74E-D12A-8C49-88BF-474E0A7757AC}">
-    <filterColumn colId="17">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:U97" xr:uid="{9ADBB74E-D12A-8C49-88BF-474E0A7757AC}"/>
   <hyperlinks>
     <hyperlink ref="D15" r:id="rId1" xr:uid="{42F51C1E-49FE-F44A-80BE-B1DBE01F57E6}"/>
     <hyperlink ref="D44" r:id="rId2" xr:uid="{635FFB2E-7F06-8448-BD6B-15339C26C7F1}"/>

--- a/data/final_data/manually_cleaned_data.xlsx
+++ b/data/final_data/manually_cleaned_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="241">
   <si>
     <t>clean_name</t>
   </si>
@@ -269,6 +269,21 @@
     <t xml:space="preserve">Turkey </t>
   </si>
   <si>
+    <t>Lauren Hoffman</t>
+  </si>
+  <si>
+    <t>Erica Adler</t>
+  </si>
+  <si>
+    <t>Kelsey Platt</t>
+  </si>
+  <si>
+    <t>Caleb Upkins</t>
+  </si>
+  <si>
+    <t>18 to 24</t>
+  </si>
+  <si>
     <t>Irem</t>
   </si>
   <si>
@@ -329,9 +344,6 @@
       </rPr>
       <t>bpg263@nyu.edu</t>
     </r>
-  </si>
-  <si>
-    <t>18 to 24</t>
   </si>
   <si>
     <t>Maya Brunton</t>
@@ -2331,7 +2343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U97"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3469,25 +3481,45 @@
       <c r="F20" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G20" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>25</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="L20" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>28</v>
+      </c>
       <c r="Q20" t="s" s="2">
         <v>29</v>
       </c>
       <c r="R20" s="4">
-        <v>1</v>
-      </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>1</v>
+      </c>
+      <c r="T20" s="4">
+        <v>2</v>
+      </c>
+      <c r="U20" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" ht="17" customHeight="1">
       <c r="A21" t="s" s="2">
@@ -3504,25 +3536,45 @@
       <c r="F21" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="G21" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>25</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="L21" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>25</v>
+      </c>
       <c r="Q21" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R21" s="4">
         <v>1</v>
       </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
+      <c r="S21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T21" s="4">
+        <v>2</v>
+      </c>
+      <c r="U21" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" ht="17" customHeight="1">
       <c r="A22" t="s" s="2">
@@ -3539,25 +3591,45 @@
       <c r="F22" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="G22" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>25</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="L22" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>25</v>
+      </c>
       <c r="Q22" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R22" s="4">
         <v>0</v>
       </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
+      <c r="S22" s="4">
+        <v>1</v>
+      </c>
+      <c r="T22" s="4">
+        <v>1</v>
+      </c>
+      <c r="U22" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" ht="17" customHeight="1">
       <c r="A23" t="s" s="2">
@@ -3574,32 +3646,52 @@
       <c r="F23" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="G23" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>25</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="L23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>25</v>
+      </c>
       <c r="Q23" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R23" s="4">
-        <v>1</v>
-      </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="S23" s="4">
+        <v>2</v>
+      </c>
+      <c r="T23" s="4">
+        <v>1</v>
+      </c>
+      <c r="U23" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" ht="17" customHeight="1">
       <c r="A24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -3620,10 +3712,10 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -3631,10 +3723,10 @@
     </row>
     <row r="25" ht="17" customHeight="1">
       <c r="A25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -3655,7 +3747,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R25" s="4">
         <v>1</v>
@@ -3666,10 +3758,10 @@
     </row>
     <row r="26" ht="17" customHeight="1">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -3693,7 +3785,7 @@
         <v>29</v>
       </c>
       <c r="R26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -3701,10 +3793,10 @@
     </row>
     <row r="27" ht="17" customHeight="1">
       <c r="A27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -3725,7 +3817,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R27" s="4">
         <v>1</v>
@@ -3736,268 +3828,162 @@
     </row>
     <row r="28" ht="17" customHeight="1">
       <c r="A28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="4">
         <v>27</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="4">
-        <v>6509068526</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="M28" s="4">
-        <v>0</v>
-      </c>
-      <c r="N28" s="4">
-        <v>1</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P28" t="s" s="2">
-        <v>28</v>
-      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
       <c r="Q28" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R28" s="4">
-        <v>1</v>
-      </c>
-      <c r="S28" s="4">
-        <v>2</v>
-      </c>
-      <c r="T28" s="4">
-        <v>2</v>
-      </c>
-      <c r="U28" s="4">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
     </row>
     <row r="29" ht="17" customHeight="1">
       <c r="A29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="4">
         <v>28</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="4">
-        <v>6506193869</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="M29" s="4">
-        <v>1</v>
-      </c>
-      <c r="N29" s="4">
-        <v>1</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P29" t="s" s="2">
-        <v>28</v>
-      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
       <c r="Q29" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R29" s="4">
         <v>1</v>
       </c>
-      <c r="S29" s="4">
-        <v>1</v>
-      </c>
-      <c r="T29" s="4">
-        <v>2</v>
-      </c>
-      <c r="U29" s="4">
-        <v>1</v>
-      </c>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
     </row>
     <row r="30" ht="17" customHeight="1">
       <c r="A30" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="4">
         <v>29</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K30" s="4">
-        <v>6504923663</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M30" s="4">
-        <v>0</v>
-      </c>
-      <c r="N30" s="4">
-        <v>1</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>28</v>
-      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
       <c r="Q30" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R30" s="4">
-        <v>0</v>
-      </c>
-      <c r="S30" s="4">
-        <v>1</v>
-      </c>
-      <c r="T30" s="4">
-        <v>2</v>
-      </c>
-      <c r="U30" s="4">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
     </row>
     <row r="31" ht="17" customHeight="1">
       <c r="A31" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="4">
         <v>30</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" t="s" s="2">
-        <v>89</v>
-      </c>
+      <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="M31" s="4">
-        <v>1</v>
-      </c>
-      <c r="N31" s="4">
-        <v>3</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="P31" t="s" s="2">
-        <v>28</v>
-      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
       <c r="Q31" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R31" s="4">
-        <v>0</v>
-      </c>
-      <c r="S31" s="4">
-        <v>2</v>
-      </c>
-      <c r="T31" s="4">
-        <v>2</v>
-      </c>
-      <c r="U31" s="4">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
     </row>
     <row r="32" ht="17" customHeight="1">
       <c r="A32" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E32" s="4">
         <v>31</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>24</v>
@@ -4006,24 +3992,24 @@
         <v>25</v>
       </c>
       <c r="I32" s="3"/>
-      <c r="J32" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="4">
+        <v>6509068526</v>
+      </c>
       <c r="L32" t="s" s="2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q32" t="s" s="2">
         <v>29</v>
@@ -4032,10 +4018,10 @@
         <v>1</v>
       </c>
       <c r="S32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U32" s="4">
         <v>2</v>
@@ -4043,22 +4029,22 @@
     </row>
     <row r="33" ht="17" customHeight="1">
       <c r="A33" t="s" s="2">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E33" s="4">
         <v>32</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>24</v>
@@ -4067,21 +4053,21 @@
         <v>25</v>
       </c>
       <c r="I33" s="3"/>
-      <c r="J33" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="4">
+        <v>6506193869</v>
+      </c>
       <c r="L33" t="s" s="2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>28</v>
@@ -4093,33 +4079,33 @@
         <v>1</v>
       </c>
       <c r="S33" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U33" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="17" customHeight="1">
       <c r="A34" t="s" s="2">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E34" s="4">
         <v>33</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>24</v>
@@ -4128,18 +4114,20 @@
         <v>25</v>
       </c>
       <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="J34" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="K34" s="4">
-        <v>6507303174</v>
+        <v>6504923663</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="M34" s="4">
         <v>0</v>
       </c>
       <c r="N34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>50</v>
@@ -4151,36 +4139,36 @@
         <v>32</v>
       </c>
       <c r="R34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" s="4">
         <v>1</v>
       </c>
       <c r="T34" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U34" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="17" customHeight="1">
       <c r="A35" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E35" s="4">
         <v>34</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>24</v>
@@ -4190,26 +4178,26 @@
       </c>
       <c r="I35" s="3"/>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" t="s" s="2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M35" s="4">
         <v>1</v>
       </c>
       <c r="N35" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>28</v>
       </c>
       <c r="Q35" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R35" s="4">
         <v>0</v>
@@ -4218,30 +4206,30 @@
         <v>2</v>
       </c>
       <c r="T35" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U35" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="17" customHeight="1">
       <c r="A36" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E36" s="4">
         <v>35</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>24</v>
@@ -4251,23 +4239,23 @@
       </c>
       <c r="I36" s="3"/>
       <c r="J36" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" t="s" s="2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="4">
         <v>0</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q36" t="s" s="2">
         <v>29</v>
@@ -4279,30 +4267,30 @@
         <v>1</v>
       </c>
       <c r="T36" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U36" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" ht="17" customHeight="1">
       <c r="A37" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E37" s="4">
         <v>36</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>24</v>
@@ -4312,58 +4300,58 @@
       </c>
       <c r="I37" s="3"/>
       <c r="J37" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" t="s" s="2">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M37" s="4">
         <v>0</v>
       </c>
       <c r="N37" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>28</v>
       </c>
       <c r="Q37" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T37" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U37" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" ht="17" customHeight="1">
       <c r="A38" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E38" s="4">
         <v>37</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>24</v>
@@ -4372,15 +4360,15 @@
         <v>25</v>
       </c>
       <c r="I38" s="3"/>
-      <c r="J38" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="K38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="4">
+        <v>6507303174</v>
+      </c>
       <c r="L38" t="s" s="2">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M38" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="4">
         <v>0</v>
@@ -4392,39 +4380,39 @@
         <v>28</v>
       </c>
       <c r="Q38" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R38" s="4">
         <v>1</v>
       </c>
-      <c r="S38" t="s" s="2">
-        <v>42</v>
+      <c r="S38" s="4">
+        <v>1</v>
       </c>
       <c r="T38" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U38" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" ht="17" customHeight="1">
       <c r="A39" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E39" s="4">
         <v>38</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>24</v>
@@ -4433,34 +4421,36 @@
         <v>25</v>
       </c>
       <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="J39" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="K39" s="3"/>
       <c r="L39" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="M39" s="4">
+        <v>1</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="M39" s="4">
-        <v>1</v>
-      </c>
-      <c r="N39" s="4">
-        <v>0</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="P39" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q39" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="4">
         <v>2</v>
       </c>
       <c r="T39" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U39" s="4">
         <v>2</v>
@@ -4468,22 +4458,22 @@
     </row>
     <row r="40" ht="17" customHeight="1">
       <c r="A40" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E40" s="4">
         <v>39</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>24</v>
@@ -4492,28 +4482,30 @@
         <v>25</v>
       </c>
       <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="J40" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="K40" s="3"/>
       <c r="L40" t="s" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M40" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="4">
         <v>0</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>29</v>
       </c>
       <c r="R40" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" s="4">
         <v>1</v>
@@ -4527,22 +4519,22 @@
     </row>
     <row r="41" ht="17" customHeight="1">
       <c r="A41" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E41" s="4">
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>24</v>
@@ -4552,17 +4544,17 @@
       </c>
       <c r="I41" s="3"/>
       <c r="J41" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" t="s" s="2">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>50</v>
@@ -4574,36 +4566,36 @@
         <v>32</v>
       </c>
       <c r="R41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="4">
         <v>1</v>
       </c>
       <c r="T41" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U41" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="17" customHeight="1">
       <c r="A42" t="s" s="2">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E42" s="4">
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>24</v>
@@ -4613,11 +4605,9 @@
       </c>
       <c r="I42" s="3"/>
       <c r="J42" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K42" s="4">
-        <v>6502294129</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="K42" s="3"/>
       <c r="L42" t="s" s="2">
         <v>35</v>
       </c>
@@ -4634,10 +4624,10 @@
         <v>28</v>
       </c>
       <c r="Q42" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>42</v>
@@ -4651,22 +4641,22 @@
     </row>
     <row r="43" ht="17" customHeight="1">
       <c r="A43" t="s" s="2">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E43" s="4">
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>24</v>
@@ -4675,59 +4665,57 @@
         <v>25</v>
       </c>
       <c r="I43" s="3"/>
-      <c r="J43" t="s" s="2">
-        <v>122</v>
-      </c>
+      <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="M43" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="4">
         <v>0</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>25</v>
       </c>
       <c r="Q43" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R43" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T43" s="4">
         <v>2</v>
       </c>
       <c r="U43" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" ht="17" customHeight="1">
       <c r="A44" t="s" s="2">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E44" s="4">
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>24</v>
@@ -4736,17 +4724,13 @@
         <v>25</v>
       </c>
       <c r="I44" s="3"/>
-      <c r="J44" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="K44" s="4">
-        <v>6503363980</v>
-      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
       <c r="L44" t="s" s="2">
         <v>26</v>
       </c>
       <c r="M44" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="4">
         <v>0</v>
@@ -4764,33 +4748,33 @@
         <v>0</v>
       </c>
       <c r="S44" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T44" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U44" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" ht="17" customHeight="1">
       <c r="A45" t="s" s="2">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E45" s="4">
         <v>44</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>24</v>
@@ -4800,32 +4784,32 @@
       </c>
       <c r="I45" s="3"/>
       <c r="J45" t="s" s="2">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" t="s" s="2">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="M45" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="4">
         <v>0</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>28</v>
       </c>
       <c r="Q45" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R45" s="4">
         <v>1</v>
       </c>
       <c r="S45" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T45" s="4">
         <v>1</v>
@@ -4836,22 +4820,22 @@
     </row>
     <row r="46" ht="17" customHeight="1">
       <c r="A46" t="s" s="2">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E46" s="4">
         <v>45</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>24</v>
@@ -4860,12 +4844,14 @@
         <v>25</v>
       </c>
       <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="J46" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="K46" s="4">
-        <v>6505155803</v>
+        <v>6502294129</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M46" s="4">
         <v>1</v>
@@ -4885,34 +4871,34 @@
       <c r="R46" s="4">
         <v>0</v>
       </c>
-      <c r="S46" s="4">
-        <v>2</v>
+      <c r="S46" t="s" s="2">
+        <v>42</v>
       </c>
       <c r="T46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U46" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" ht="17" customHeight="1">
       <c r="A47" t="s" s="2">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E47" s="4">
         <v>46</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>24</v>
@@ -4922,58 +4908,58 @@
       </c>
       <c r="I47" s="3"/>
       <c r="J47" t="s" s="2">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="M47" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="4">
         <v>0</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q47" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R47" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="4">
         <v>1</v>
       </c>
       <c r="T47" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U47" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" ht="17" customHeight="1">
       <c r="A48" t="s" s="2">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E48" s="4">
         <v>47</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>24</v>
@@ -4983,58 +4969,60 @@
       </c>
       <c r="I48" s="3"/>
       <c r="J48" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="K48" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="K48" s="4">
+        <v>6503363980</v>
+      </c>
       <c r="L48" t="s" s="2">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M48" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="4">
         <v>0</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q48" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R48" s="4">
         <v>0</v>
       </c>
       <c r="S48" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T48" s="4">
         <v>1</v>
       </c>
       <c r="U48" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" ht="17" customHeight="1">
       <c r="A49" t="s" s="2">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E49" s="4">
         <v>48</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>24</v>
@@ -5044,29 +5032,29 @@
       </c>
       <c r="I49" s="3"/>
       <c r="J49" t="s" s="2">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" t="s" s="2">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="M49" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" s="4">
         <v>0</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>28</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="4">
         <v>2</v>
@@ -5080,22 +5068,22 @@
     </row>
     <row r="50" ht="17" customHeight="1">
       <c r="A50" t="s" s="2">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E50" s="4">
         <v>49</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>24</v>
@@ -5104,33 +5092,33 @@
         <v>25</v>
       </c>
       <c r="I50" s="3"/>
-      <c r="J50" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="K50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="4">
+        <v>6505155803</v>
+      </c>
       <c r="L50" t="s" s="2">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M50" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="4">
         <v>0</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q50" t="s" s="2">
         <v>32</v>
       </c>
       <c r="R50" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T50" s="4">
         <v>1</v>
@@ -5141,22 +5129,22 @@
     </row>
     <row r="51" ht="17" customHeight="1">
       <c r="A51" t="s" s="2">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E51" s="4">
         <v>50</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>24</v>
@@ -5166,16 +5154,14 @@
       </c>
       <c r="I51" s="3"/>
       <c r="J51" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="K51" s="4">
-        <v>5017721008</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="K51" s="3"/>
       <c r="L51" t="s" s="2">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="M51" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="4">
         <v>0</v>
@@ -5196,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="T51" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U51" s="4">
         <v>2</v>
@@ -5204,22 +5190,22 @@
     </row>
     <row r="52" ht="17" customHeight="1">
       <c r="A52" t="s" s="2">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E52" s="4">
         <v>51</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>24</v>
@@ -5229,11 +5215,11 @@
       </c>
       <c r="I52" s="3"/>
       <c r="J52" t="s" s="2">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" t="s" s="2">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M52" s="4">
         <v>1</v>
@@ -5242,16 +5228,16 @@
         <v>0</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q52" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R52" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="4">
         <v>1</v>
@@ -5260,27 +5246,27 @@
         <v>1</v>
       </c>
       <c r="U52" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" ht="17" customHeight="1">
       <c r="A53" t="s" s="2">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E53" s="4">
         <v>52</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>24</v>
@@ -5290,14 +5276,14 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" t="s" s="2">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" t="s" s="2">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M53" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" s="4">
         <v>0</v>
@@ -5312,106 +5298,160 @@
         <v>32</v>
       </c>
       <c r="R53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T53" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U53" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" ht="17" customHeight="1">
       <c r="A54" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="E54" s="4">
         <v>53</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>25</v>
+      </c>
       <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+      <c r="J54" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
+      <c r="L54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="M54" s="4">
+        <v>0</v>
+      </c>
+      <c r="N54" s="4">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>25</v>
+      </c>
       <c r="Q54" t="s" s="2">
         <v>32</v>
       </c>
       <c r="R54" s="4">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="S54" s="4">
+        <v>1</v>
+      </c>
+      <c r="T54" s="4">
+        <v>1</v>
+      </c>
+      <c r="U54" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" ht="17" customHeight="1">
       <c r="A55" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="E55" s="4">
         <v>54</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>25</v>
+      </c>
       <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
+      <c r="J55" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K55" s="4">
+        <v>5017721008</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0</v>
+      </c>
+      <c r="N55" s="4">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>28</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>32</v>
       </c>
       <c r="R55" s="4">
         <v>1</v>
       </c>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
+      <c r="S55" s="4">
+        <v>1</v>
+      </c>
+      <c r="T55" s="4">
+        <v>2</v>
+      </c>
+      <c r="U55" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" ht="17" customHeight="1">
       <c r="A56" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E56" s="4">
         <v>55</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>24</v>
@@ -5421,7 +5461,7 @@
       </c>
       <c r="I56" s="3"/>
       <c r="J56" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" t="s" s="2">
@@ -5437,7 +5477,7 @@
         <v>50</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q56" t="s" s="2">
         <v>29</v>
@@ -5449,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="T56" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U56" s="4">
         <v>2</v>
@@ -5457,22 +5497,22 @@
     </row>
     <row r="57" ht="17" customHeight="1">
       <c r="A57" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E57" s="4">
         <v>56</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>24</v>
@@ -5482,11 +5522,11 @@
       </c>
       <c r="I57" s="3"/>
       <c r="J57" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" t="s" s="2">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="M57" s="4">
         <v>0</v>
@@ -5504,160 +5544,106 @@
         <v>32</v>
       </c>
       <c r="R57" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T57" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U57" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" ht="17" customHeight="1">
       <c r="A58" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D58" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="4">
         <v>57</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-      <c r="J58" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K58" s="4">
-        <v>5017438168</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="M58" s="4">
-        <v>1</v>
-      </c>
-      <c r="N58" s="4">
-        <v>0</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
       <c r="Q58" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R58" s="4">
-        <v>1</v>
-      </c>
-      <c r="S58" s="4">
-        <v>2</v>
-      </c>
-      <c r="T58" s="4">
-        <v>1</v>
-      </c>
-      <c r="U58" s="4">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
     </row>
     <row r="59" ht="17" customHeight="1">
       <c r="A59" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="D59" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="4">
         <v>58</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="4">
-        <v>5013523151</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="M59" s="4">
-        <v>0</v>
-      </c>
-      <c r="N59" s="4">
-        <v>0</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>28</v>
-      </c>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
       <c r="Q59" t="s" s="2">
         <v>32</v>
       </c>
       <c r="R59" s="4">
-        <v>0</v>
-      </c>
-      <c r="S59" s="4">
-        <v>1</v>
-      </c>
-      <c r="T59" s="4">
-        <v>2</v>
-      </c>
-      <c r="U59" s="4">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
     </row>
     <row r="60" ht="17" customHeight="1">
       <c r="A60" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E60" s="4">
         <v>59</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>24</v>
@@ -5667,14 +5653,14 @@
       </c>
       <c r="I60" s="3"/>
       <c r="J60" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="M60" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" s="4">
         <v>0</v>
@@ -5698,27 +5684,27 @@
         <v>2</v>
       </c>
       <c r="U60" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" ht="17" customHeight="1">
       <c r="A61" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E61" s="4">
         <v>60</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>24</v>
@@ -5728,13 +5714,11 @@
       </c>
       <c r="I61" s="3"/>
       <c r="J61" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="K61" s="4">
-        <v>4083968049</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="K61" s="3"/>
       <c r="L61" t="s" s="2">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="M61" s="4">
         <v>0</v>
@@ -5749,62 +5733,64 @@
         <v>28</v>
       </c>
       <c r="Q61" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R61" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T61" s="4">
         <v>1</v>
       </c>
       <c r="U61" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" ht="17" customHeight="1">
       <c r="A62" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E62" s="4">
         <v>61</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>24</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="K62" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="K62" s="4">
+        <v>5017438168</v>
+      </c>
       <c r="L62" t="s" s="2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M62" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" s="4">
         <v>0</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>25</v>
@@ -5822,27 +5808,27 @@
         <v>1</v>
       </c>
       <c r="U62" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" ht="17" customHeight="1">
       <c r="A63" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E63" s="4">
         <v>62</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>24</v>
@@ -5853,13 +5839,13 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="4">
-        <v>6505757583</v>
+        <v>5013523151</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M63" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" s="4">
         <v>0</v>
@@ -5871,7 +5857,7 @@
         <v>28</v>
       </c>
       <c r="Q63" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R63" s="4">
         <v>0</v>
@@ -5883,27 +5869,27 @@
         <v>2</v>
       </c>
       <c r="U63" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" ht="17" customHeight="1">
       <c r="A64" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E64" s="4">
         <v>63</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>24</v>
@@ -5913,14 +5899,14 @@
       </c>
       <c r="I64" s="3"/>
       <c r="J64" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" t="s" s="2">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" s="4">
         <v>0</v>
@@ -5929,7 +5915,7 @@
         <v>50</v>
       </c>
       <c r="P64" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q64" t="s" s="2">
         <v>29</v>
@@ -5938,33 +5924,33 @@
         <v>1</v>
       </c>
       <c r="S64" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T64" s="4">
         <v>2</v>
       </c>
       <c r="U64" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" ht="17" customHeight="1">
       <c r="A65" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E65" s="4">
         <v>64</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>24</v>
@@ -5974,14 +5960,16 @@
       </c>
       <c r="I65" s="3"/>
       <c r="J65" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="K65" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="K65" s="4">
+        <v>4083968049</v>
+      </c>
       <c r="L65" t="s" s="2">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M65" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" s="4">
         <v>0</v>
@@ -5996,7 +5984,7 @@
         <v>29</v>
       </c>
       <c r="R65" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" s="4">
         <v>1</v>
@@ -6005,50 +5993,50 @@
         <v>1</v>
       </c>
       <c r="U65" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="17" customHeight="1">
       <c r="A66" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E66" s="4">
         <v>65</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>24</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" t="s" s="2">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="M66" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" s="4">
         <v>0</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>25</v>
@@ -6071,22 +6059,22 @@
     </row>
     <row r="67" ht="17" customHeight="1">
       <c r="A67" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E67" s="4">
         <v>66</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>24</v>
@@ -6095,35 +6083,33 @@
         <v>25</v>
       </c>
       <c r="I67" s="3"/>
-      <c r="J67" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="J67" s="3"/>
       <c r="K67" s="4">
-        <v>6502150745</v>
+        <v>6505757583</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="M67" s="4">
         <v>1</v>
       </c>
       <c r="N67" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>50</v>
       </c>
       <c r="P67" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q67" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R67" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T67" s="4">
         <v>2</v>
@@ -6134,22 +6120,22 @@
     </row>
     <row r="68" ht="17" customHeight="1">
       <c r="A68" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E68" s="4">
         <v>67</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>24</v>
@@ -6159,11 +6145,11 @@
       </c>
       <c r="I68" s="3"/>
       <c r="J68" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" t="s" s="2">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="M68" s="4">
         <v>1</v>
@@ -6172,22 +6158,22 @@
         <v>0</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="P68" t="s" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q68" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T68" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U68" s="4">
         <v>2</v>
@@ -6195,22 +6181,22 @@
     </row>
     <row r="69" ht="17" customHeight="1">
       <c r="A69" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D69" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E69" s="4">
         <v>68</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>24</v>
@@ -6220,14 +6206,14 @@
       </c>
       <c r="I69" s="3"/>
       <c r="J69" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" t="s" s="2">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="M69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" s="4">
         <v>0</v>
@@ -6242,7 +6228,7 @@
         <v>29</v>
       </c>
       <c r="R69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69" s="4">
         <v>1</v>
@@ -6256,22 +6242,22 @@
     </row>
     <row r="70" ht="17" customHeight="1">
       <c r="A70" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E70" s="4">
         <v>69</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>24</v>
@@ -6281,32 +6267,32 @@
       </c>
       <c r="I70" s="3"/>
       <c r="J70" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M70" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>50</v>
       </c>
       <c r="P70" t="s" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q70" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R70" s="4">
-        <v>0</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="S70" s="4">
+        <v>2</v>
       </c>
       <c r="T70" s="4">
         <v>1</v>
@@ -6317,22 +6303,22 @@
     </row>
     <row r="71" ht="17" customHeight="1">
       <c r="A71" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D71" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E71" s="4">
         <v>70</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>24</v>
@@ -6342,37 +6328,37 @@
       </c>
       <c r="I71" s="3"/>
       <c r="J71" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K71" s="4">
-        <v>4086216544</v>
+        <v>6502150745</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M71" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>50</v>
       </c>
       <c r="P71" t="s" s="2">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="Q71" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R71" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T71" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U71" s="4">
         <v>2</v>
@@ -6380,59 +6366,83 @@
     </row>
     <row r="72" ht="17" customHeight="1">
       <c r="A72" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+        <v>185</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="E72" s="4">
         <v>71</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>25</v>
+      </c>
       <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
+      <c r="J72" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
+      <c r="L72" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="M72" s="4">
         <v>1</v>
       </c>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
+      <c r="N72" s="4">
+        <v>0</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>28</v>
+      </c>
       <c r="Q72" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R72" s="4">
-        <v>1</v>
-      </c>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="4">
+        <v>1</v>
+      </c>
+      <c r="T72" s="4">
+        <v>1</v>
+      </c>
+      <c r="U72" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="73" ht="17" customHeight="1">
       <c r="A73" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D73" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E73" s="4">
         <v>72</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>24</v>
@@ -6442,37 +6452,35 @@
       </c>
       <c r="I73" s="3"/>
       <c r="J73" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="K73" s="4">
-        <v>6509067750</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="K73" s="3"/>
       <c r="L73" t="s" s="2">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="M73" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73" s="4">
         <v>0</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>28</v>
       </c>
       <c r="Q73" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" s="4">
         <v>1</v>
       </c>
       <c r="T73" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U73" s="4">
         <v>2</v>
@@ -6480,22 +6488,22 @@
     </row>
     <row r="74" ht="17" customHeight="1">
       <c r="A74" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D74" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E74" s="4">
         <v>73</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>24</v>
@@ -6505,19 +6513,17 @@
       </c>
       <c r="I74" s="3"/>
       <c r="J74" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="K74" s="4">
-        <v>6508231884</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="K74" s="3"/>
       <c r="L74" t="s" s="2">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="M74" s="4">
         <v>0</v>
       </c>
       <c r="N74" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>50</v>
@@ -6543,22 +6549,22 @@
     </row>
     <row r="75" ht="17" customHeight="1">
       <c r="A75" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D75" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E75" s="4">
         <v>74</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>24</v>
@@ -6568,23 +6574,25 @@
       </c>
       <c r="I75" s="3"/>
       <c r="J75" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="K75" s="3"/>
+        <v>193</v>
+      </c>
+      <c r="K75" s="4">
+        <v>4086216544</v>
+      </c>
       <c r="L75" t="s" s="2">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M75" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>50</v>
       </c>
       <c r="P75" t="s" s="2">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="Q75" t="s" s="2">
         <v>29</v>
@@ -6595,8 +6603,8 @@
       <c r="S75" s="4">
         <v>1</v>
       </c>
-      <c r="T75" t="s" s="2">
-        <v>42</v>
+      <c r="T75" s="4">
+        <v>1</v>
       </c>
       <c r="U75" s="4">
         <v>2</v>
@@ -6604,10 +6612,10 @@
     </row>
     <row r="76" ht="17" customHeight="1">
       <c r="A76" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -6615,7 +6623,7 @@
         <v>75</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -6623,15 +6631,17 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
+      <c r="M76" s="4">
+        <v>1</v>
+      </c>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
       <c r="Q76" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R76" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
@@ -6639,108 +6649,190 @@
     </row>
     <row r="77" ht="17" customHeight="1">
       <c r="A77" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="E77" s="4">
         <v>76</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>25</v>
+      </c>
       <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
+      <c r="J77" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K77" s="4">
+        <v>6509067750</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="M77" s="4">
+        <v>1</v>
+      </c>
+      <c r="N77" s="4">
+        <v>0</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>28</v>
+      </c>
       <c r="Q77" t="s" s="2">
         <v>32</v>
       </c>
       <c r="R77" s="4">
-        <v>1</v>
-      </c>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="4">
+        <v>1</v>
+      </c>
+      <c r="T77" s="4">
+        <v>2</v>
+      </c>
+      <c r="U77" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="78" ht="17" customHeight="1">
       <c r="A78" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="E78" s="4">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>25</v>
+      </c>
       <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
+      <c r="J78" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K78" s="4">
+        <v>6508231884</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="M78" s="4">
+        <v>0</v>
+      </c>
+      <c r="N78" s="4">
+        <v>0</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>28</v>
+      </c>
       <c r="Q78" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R78" s="4">
-        <v>1</v>
-      </c>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T78" s="4">
+        <v>1</v>
+      </c>
+      <c r="U78" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" ht="17" customHeight="1">
       <c r="A79" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="E79" s="4">
         <v>78</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>25</v>
+      </c>
       <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
+      <c r="J79" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
+      <c r="L79" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M79" s="4">
+        <v>1</v>
+      </c>
+      <c r="N79" s="4">
+        <v>0</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>28</v>
+      </c>
       <c r="Q79" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R79" s="4">
-        <v>1</v>
-      </c>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S79" s="4">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U79" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" ht="17" customHeight="1">
       <c r="A80" t="s" s="2">
@@ -6755,7 +6847,7 @@
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -6768,10 +6860,10 @@
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R80" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
@@ -6790,7 +6882,7 @@
         <v>80</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -6806,7 +6898,7 @@
         <v>32</v>
       </c>
       <c r="R81" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81" s="3"/>
       <c r="T81" s="3"/>
@@ -6825,7 +6917,7 @@
         <v>81</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -6860,278 +6952,174 @@
         <v>82</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
-      <c r="L83" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="M83" s="4">
-        <v>1</v>
-      </c>
-      <c r="N83" s="4">
-        <v>0</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
       <c r="Q83" t="s" s="2">
         <v>32</v>
       </c>
       <c r="R83" s="4">
         <v>1</v>
       </c>
-      <c r="S83" s="4">
-        <v>2</v>
-      </c>
-      <c r="T83" s="4">
-        <v>1</v>
-      </c>
-      <c r="U83" s="4">
-        <v>1</v>
-      </c>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
     </row>
     <row r="84" ht="17" customHeight="1">
       <c r="A84" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="D84" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
       <c r="E84" s="4">
         <v>83</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
       <c r="I84" s="3"/>
-      <c r="J84" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="J84" s="3"/>
       <c r="K84" s="3"/>
-      <c r="L84" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="M84" s="4">
-        <v>0</v>
-      </c>
-      <c r="N84" s="4">
-        <v>3</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>28</v>
-      </c>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
       <c r="Q84" t="s" s="2">
         <v>29</v>
       </c>
       <c r="R84" s="4">
-        <v>0</v>
-      </c>
-      <c r="S84" s="4">
-        <v>1</v>
-      </c>
-      <c r="T84" s="4">
-        <v>1</v>
-      </c>
-      <c r="U84" s="4">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
     </row>
     <row r="85" ht="17" customHeight="1">
       <c r="A85" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="D85" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
       <c r="E85" s="4">
         <v>84</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
       <c r="I85" s="3"/>
-      <c r="J85" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="J85" s="3"/>
       <c r="K85" s="3"/>
-      <c r="L85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="M85" s="4">
-        <v>0</v>
-      </c>
-      <c r="N85" s="4">
-        <v>0</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="P85" t="s" s="2">
-        <v>28</v>
-      </c>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
       <c r="Q85" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R85" s="4">
-        <v>1</v>
-      </c>
-      <c r="S85" s="4">
-        <v>1</v>
-      </c>
-      <c r="T85" s="4">
-        <v>1</v>
-      </c>
-      <c r="U85" s="4">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
     </row>
     <row r="86" ht="17" customHeight="1">
       <c r="A86" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="D86" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
       <c r="E86" s="4">
         <v>85</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
       <c r="I86" s="3"/>
-      <c r="J86" t="s" s="2">
-        <v>214</v>
-      </c>
+      <c r="J86" s="3"/>
       <c r="K86" s="3"/>
-      <c r="L86" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="M86" s="4">
-        <v>1</v>
-      </c>
-      <c r="N86" s="4">
-        <v>0</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>28</v>
-      </c>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
       <c r="Q86" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R86" s="4">
-        <v>0</v>
-      </c>
-      <c r="S86" s="4">
-        <v>1</v>
-      </c>
-      <c r="T86" s="4">
-        <v>1</v>
-      </c>
-      <c r="U86" s="4">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
     </row>
     <row r="87" ht="17" customHeight="1">
       <c r="A87" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="D87" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
       <c r="E87" s="4">
         <v>86</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>25</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="4">
-        <v>4086448630</v>
-      </c>
+      <c r="K87" s="3"/>
       <c r="L87" t="s" s="2">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M87" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" s="4">
         <v>0</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="P87" t="s" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q87" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R87" s="4">
         <v>1</v>
@@ -7143,27 +7131,27 @@
         <v>1</v>
       </c>
       <c r="U87" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" ht="17" customHeight="1">
       <c r="A88" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D88" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E88" s="4">
         <v>87</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>24</v>
@@ -7173,29 +7161,29 @@
       </c>
       <c r="I88" s="3"/>
       <c r="J88" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K88" s="3"/>
       <c r="L88" t="s" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M88" s="4">
         <v>0</v>
       </c>
       <c r="N88" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>50</v>
       </c>
       <c r="P88" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q88" t="s" s="2">
         <v>29</v>
       </c>
       <c r="R88" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S88" s="4">
         <v>1</v>
@@ -7209,22 +7197,22 @@
     </row>
     <row r="89" ht="17" customHeight="1">
       <c r="A89" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D89" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E89" s="4">
         <v>88</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>24</v>
@@ -7234,20 +7222,20 @@
       </c>
       <c r="I89" s="3"/>
       <c r="J89" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K89" s="3"/>
       <c r="L89" t="s" s="2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M89" s="4">
         <v>0</v>
       </c>
       <c r="N89" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>28</v>
@@ -7259,10 +7247,10 @@
         <v>1</v>
       </c>
       <c r="S89" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T89" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U89" s="4">
         <v>2</v>
@@ -7270,22 +7258,22 @@
     </row>
     <row r="90" ht="17" customHeight="1">
       <c r="A90" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D90" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E90" s="4">
         <v>89</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>24</v>
@@ -7295,13 +7283,11 @@
       </c>
       <c r="I90" s="3"/>
       <c r="J90" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="K90" s="4">
-        <v>7088213039</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="K90" s="3"/>
       <c r="L90" t="s" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M90" s="4">
         <v>1</v>
@@ -7310,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>28</v>
@@ -7319,13 +7305,13 @@
         <v>32</v>
       </c>
       <c r="R90" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S90" s="4">
         <v>1</v>
       </c>
       <c r="T90" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U90" s="4">
         <v>2</v>
@@ -7333,22 +7319,22 @@
     </row>
     <row r="91" ht="17" customHeight="1">
       <c r="A91" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D91" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E91" s="4">
         <v>90</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>24</v>
@@ -7357,21 +7343,21 @@
         <v>25</v>
       </c>
       <c r="I91" s="3"/>
-      <c r="J91" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="K91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="4">
+        <v>4086448630</v>
+      </c>
       <c r="L91" t="s" s="2">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="M91" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91" s="4">
         <v>0</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>28</v>
@@ -7386,30 +7372,30 @@
         <v>2</v>
       </c>
       <c r="T91" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U91" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" ht="17" customHeight="1">
       <c r="A92" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E92" s="4">
         <v>91</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>24</v>
@@ -7419,58 +7405,58 @@
       </c>
       <c r="I92" s="3"/>
       <c r="J92" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K92" s="3"/>
       <c r="L92" t="s" s="2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M92" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="P92" t="s" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q92" t="s" s="2">
         <v>29</v>
       </c>
       <c r="R92" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S92" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T92" s="4">
         <v>1</v>
       </c>
       <c r="U92" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" ht="17" customHeight="1">
       <c r="A93" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D93" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E93" s="4">
         <v>92</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>24</v>
@@ -7480,32 +7466,32 @@
       </c>
       <c r="I93" s="3"/>
       <c r="J93" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K93" s="3"/>
       <c r="L93" t="s" s="2">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M93" s="4">
         <v>0</v>
       </c>
       <c r="N93" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>28</v>
       </c>
       <c r="Q93" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R93" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S93" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T93" s="4">
         <v>2</v>
@@ -7516,22 +7502,22 @@
     </row>
     <row r="94" ht="17" customHeight="1">
       <c r="A94" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D94" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E94" s="4">
         <v>93</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>24</v>
@@ -7541,17 +7527,19 @@
       </c>
       <c r="I94" s="3"/>
       <c r="J94" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="K94" s="3"/>
+        <v>226</v>
+      </c>
+      <c r="K94" s="4">
+        <v>7088213039</v>
+      </c>
       <c r="L94" t="s" s="2">
         <v>26</v>
       </c>
       <c r="M94" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>50</v>
@@ -7560,16 +7548,16 @@
         <v>28</v>
       </c>
       <c r="Q94" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R94" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S94" s="4">
         <v>1</v>
       </c>
       <c r="T94" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U94" s="4">
         <v>2</v>
@@ -7577,18 +7565,22 @@
     </row>
     <row r="95" ht="17" customHeight="1">
       <c r="A95" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+        <v>227</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="E95" s="4">
         <v>94</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>24</v>
@@ -7597,10 +7589,12 @@
         <v>25</v>
       </c>
       <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
+      <c r="J95" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="K95" s="3"/>
       <c r="L95" t="s" s="2">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="M95" s="4">
         <v>1</v>
@@ -7615,7 +7609,7 @@
         <v>28</v>
       </c>
       <c r="Q95" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R95" s="4">
         <v>1</v>
@@ -7624,30 +7618,30 @@
         <v>2</v>
       </c>
       <c r="T95" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U95" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" ht="17" customHeight="1">
       <c r="A96" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D96" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E96" s="4">
         <v>95</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>24</v>
@@ -7657,20 +7651,20 @@
       </c>
       <c r="I96" s="3"/>
       <c r="J96" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K96" s="3"/>
       <c r="L96" t="s" s="2">
         <v>26</v>
       </c>
       <c r="M96" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>28</v>
@@ -7682,33 +7676,33 @@
         <v>0</v>
       </c>
       <c r="S96" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T96" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U96" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" ht="17" customHeight="1">
       <c r="A97" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D97" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E97" s="4">
         <v>96</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>24</v>
@@ -7718,20 +7712,20 @@
       </c>
       <c r="I97" s="3"/>
       <c r="J97" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K97" s="3"/>
       <c r="L97" t="s" s="2">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M97" s="4">
         <v>0</v>
       </c>
       <c r="N97" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>28</v>
@@ -7742,13 +7736,251 @@
       <c r="R97" s="4">
         <v>0</v>
       </c>
-      <c r="S97" t="s" s="2">
+      <c r="S97" s="4">
+        <v>1</v>
+      </c>
+      <c r="T97" s="4">
+        <v>2</v>
+      </c>
+      <c r="U97" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" ht="17" customHeight="1">
+      <c r="A98" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E98" s="4">
+        <v>97</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I98" s="3"/>
+      <c r="J98" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K98" s="3"/>
+      <c r="L98" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="M98" s="4">
+        <v>0</v>
+      </c>
+      <c r="N98" s="4">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="Q98" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="R98" s="4">
+        <v>0</v>
+      </c>
+      <c r="S98" s="4">
+        <v>1</v>
+      </c>
+      <c r="T98" s="4">
+        <v>1</v>
+      </c>
+      <c r="U98" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" ht="17" customHeight="1">
+      <c r="A99" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="4">
+        <v>98</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="M99" s="4">
+        <v>1</v>
+      </c>
+      <c r="N99" s="4">
+        <v>0</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="Q99" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="R99" s="4">
+        <v>1</v>
+      </c>
+      <c r="S99" s="4">
+        <v>2</v>
+      </c>
+      <c r="T99" s="4">
+        <v>1</v>
+      </c>
+      <c r="U99" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" ht="17" customHeight="1">
+      <c r="A100" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="E100" s="4">
+        <v>99</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I100" s="3"/>
+      <c r="J100" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K100" s="3"/>
+      <c r="L100" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="M100" s="4">
+        <v>0</v>
+      </c>
+      <c r="N100" s="4">
+        <v>1</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="Q100" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="R100" s="4">
+        <v>0</v>
+      </c>
+      <c r="S100" s="4">
+        <v>1</v>
+      </c>
+      <c r="T100" s="4">
+        <v>2</v>
+      </c>
+      <c r="U100" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" ht="17" customHeight="1">
+      <c r="A101" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="E101" s="4">
+        <v>100</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I101" s="3"/>
+      <c r="J101" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K101" s="3"/>
+      <c r="L101" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="M101" s="4">
+        <v>0</v>
+      </c>
+      <c r="N101" s="4">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="Q101" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="R101" s="4">
+        <v>0</v>
+      </c>
+      <c r="S101" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="T97" s="4">
-        <v>2</v>
-      </c>
-      <c r="U97" s="4">
+      <c r="T101" s="4">
+        <v>2</v>
+      </c>
+      <c r="U101" s="4">
         <v>1</v>
       </c>
     </row>
@@ -7760,56 +7992,56 @@
     <hyperlink ref="D15" r:id="rId4" location="" tooltip="" display="sezginmakbule@gmail.com"/>
     <hyperlink ref="J18" r:id="rId5" location="" tooltip="" display="Semaermez@gmail.com "/>
     <hyperlink ref="J19" r:id="rId6" location="" tooltip="" display="onurcansel@gmail.com "/>
-    <hyperlink ref="J30" r:id="rId7" location="" tooltip="" display="bpg263@nyu.edu"/>
-    <hyperlink ref="J31" r:id="rId8" location="" tooltip="" display="mayabrunton@gmail.com"/>
-    <hyperlink ref="J32" r:id="rId9" location="" tooltip="" display="natalief96@gmail.com"/>
-    <hyperlink ref="J33" r:id="rId10" location="" tooltip="" display="speakwithmo@gmail.com"/>
-    <hyperlink ref="J35" r:id="rId11" location="" tooltip="" display="Full167@gmail.com"/>
-    <hyperlink ref="J36" r:id="rId12" location="" tooltip="" display="way_ting@yahoo.com"/>
-    <hyperlink ref="J37" r:id="rId13" location="" tooltip="" display="dawen.tsien@gmail.com"/>
-    <hyperlink ref="J38" r:id="rId14" location="" tooltip="" display="ehr@deltavbio.com"/>
-    <hyperlink ref="J41" r:id="rId15" location="" tooltip="" display="txiong096@gmail.com"/>
-    <hyperlink ref="J42" r:id="rId16" location="" tooltip="" display="nina_srinath@hotmail.com"/>
-    <hyperlink ref="J43" r:id="rId17" location="" tooltip="" display="krishnabrunton@gmail.com"/>
-    <hyperlink ref="D44" r:id="rId18" location="" tooltip="" display="cameroncbice@gmail.com"/>
-    <hyperlink ref="J44" r:id="rId19" location="" tooltip="" display="cameroncbice@gmail.com"/>
-    <hyperlink ref="J45" r:id="rId20" location="" tooltip="" display="jroberts@stanford.edu"/>
-    <hyperlink ref="J47" r:id="rId21" location="" tooltip="" display="mylanpho@gmail.com"/>
-    <hyperlink ref="J48" r:id="rId22" location="" tooltip="" display="kathywoodburn@yahoo.com"/>
-    <hyperlink ref="J49" r:id="rId23" location="" tooltip="" display="emilymorozov@gmail.com"/>
-    <hyperlink ref="J50" r:id="rId24" location="" tooltip="" display="YGMOROZOV@UALR.EDU"/>
-    <hyperlink ref="J51" r:id="rId25" location="" tooltip="" display="Michial1@gmail.com"/>
-    <hyperlink ref="J52" r:id="rId26" location="" tooltip="" display="joannahall710@gmail.com"/>
-    <hyperlink ref="J53" r:id="rId27" location="" tooltip="" display="joshualholmes@gmail.com"/>
-    <hyperlink ref="J56" r:id="rId28" location="" tooltip="" display="flsolomon@ualr.edu"/>
-    <hyperlink ref="J57" r:id="rId29" location="" tooltip="" display="benrains@yahoo.com"/>
-    <hyperlink ref="J58" r:id="rId30" location="" tooltip="" display="abtreml@gmail.com"/>
-    <hyperlink ref="J60" r:id="rId31" location="" tooltip="" display="carlos_meredith@yahoo.com"/>
-    <hyperlink ref="J61" r:id="rId32" location="" tooltip="" display="lemips@gmail.com"/>
-    <hyperlink ref="J62" r:id="rId33" location="" tooltip="" display="rgrossesq@icloud.com"/>
-    <hyperlink ref="J64" r:id="rId34" location="" tooltip="" display="cprovost53@gmail.com"/>
-    <hyperlink ref="J65" r:id="rId35" location="" tooltip="" display="tweater6381@gmail.com"/>
-    <hyperlink ref="J66" r:id="rId36" location="" tooltip="" display="carol.carpenter@gmail.com"/>
-    <hyperlink ref="J67" r:id="rId37" location="" tooltip="" display="katherine.cushing@sjsu.edu"/>
-    <hyperlink ref="J68" r:id="rId38" location="" tooltip="" display="binghai@gmail.com"/>
-    <hyperlink ref="J69" r:id="rId39" location="" tooltip="" display="davidwkipp1@gmail.com"/>
-    <hyperlink ref="J70" r:id="rId40" location="" tooltip="" display="philcarpenter88@gmail.com"/>
-    <hyperlink ref="J71" r:id="rId41" location="" tooltip="" display="jimcushing90@gmail.com"/>
-    <hyperlink ref="J73" r:id="rId42" location="" tooltip="" display="janetliu@earthlink.net"/>
-    <hyperlink ref="J74" r:id="rId43" location="" tooltip="" display="nathaniel.melisso@gmail.com"/>
-    <hyperlink ref="J75" r:id="rId44" location="" tooltip="" display="nslavori@gmail.com"/>
-    <hyperlink ref="J84" r:id="rId45" location="" tooltip="" display="lavori@stanford.edu"/>
-    <hyperlink ref="J85" r:id="rId46" location="" tooltip="" display="eddie.hou@gmail.com"/>
-    <hyperlink ref="J86" r:id="rId47" location="" tooltip="" display="cmchiang@gmail.com"/>
-    <hyperlink ref="J88" r:id="rId48" location="" tooltip="" display="larseng151@gmail.com"/>
-    <hyperlink ref="J89" r:id="rId49" location="" tooltip="" display="andrewmobusiness@gmail.com"/>
-    <hyperlink ref="J90" r:id="rId50" location="" tooltip="" display="writingforlife.caldwell@gmail.com"/>
-    <hyperlink ref="J91" r:id="rId51" location="" tooltip="" display="sophiam2011@gmail.com"/>
-    <hyperlink ref="J92" r:id="rId52" location="" tooltip="" display="shiweili77@gmail.com"/>
-    <hyperlink ref="J93" r:id="rId53" location="" tooltip="" display="marc.naumann.de@gmail.com"/>
-    <hyperlink ref="J94" r:id="rId54" location="" tooltip="" display="ryanmb07@gmail.com"/>
-    <hyperlink ref="J96" r:id="rId55" location="" tooltip="" display="pjgaudreau@gmail.com"/>
-    <hyperlink ref="J97" r:id="rId56" location="" tooltip="" display="goktugcinar@gmail.com"/>
+    <hyperlink ref="J34" r:id="rId7" location="" tooltip="" display="bpg263@nyu.edu"/>
+    <hyperlink ref="J35" r:id="rId8" location="" tooltip="" display="mayabrunton@gmail.com"/>
+    <hyperlink ref="J36" r:id="rId9" location="" tooltip="" display="natalief96@gmail.com"/>
+    <hyperlink ref="J37" r:id="rId10" location="" tooltip="" display="speakwithmo@gmail.com"/>
+    <hyperlink ref="J39" r:id="rId11" location="" tooltip="" display="Full167@gmail.com"/>
+    <hyperlink ref="J40" r:id="rId12" location="" tooltip="" display="way_ting@yahoo.com"/>
+    <hyperlink ref="J41" r:id="rId13" location="" tooltip="" display="dawen.tsien@gmail.com"/>
+    <hyperlink ref="J42" r:id="rId14" location="" tooltip="" display="ehr@deltavbio.com"/>
+    <hyperlink ref="J45" r:id="rId15" location="" tooltip="" display="txiong096@gmail.com"/>
+    <hyperlink ref="J46" r:id="rId16" location="" tooltip="" display="nina_srinath@hotmail.com"/>
+    <hyperlink ref="J47" r:id="rId17" location="" tooltip="" display="krishnabrunton@gmail.com"/>
+    <hyperlink ref="D48" r:id="rId18" location="" tooltip="" display="cameroncbice@gmail.com"/>
+    <hyperlink ref="J48" r:id="rId19" location="" tooltip="" display="cameroncbice@gmail.com"/>
+    <hyperlink ref="J49" r:id="rId20" location="" tooltip="" display="jroberts@stanford.edu"/>
+    <hyperlink ref="J51" r:id="rId21" location="" tooltip="" display="mylanpho@gmail.com"/>
+    <hyperlink ref="J52" r:id="rId22" location="" tooltip="" display="kathywoodburn@yahoo.com"/>
+    <hyperlink ref="J53" r:id="rId23" location="" tooltip="" display="emilymorozov@gmail.com"/>
+    <hyperlink ref="J54" r:id="rId24" location="" tooltip="" display="YGMOROZOV@UALR.EDU"/>
+    <hyperlink ref="J55" r:id="rId25" location="" tooltip="" display="Michial1@gmail.com"/>
+    <hyperlink ref="J56" r:id="rId26" location="" tooltip="" display="joannahall710@gmail.com"/>
+    <hyperlink ref="J57" r:id="rId27" location="" tooltip="" display="joshualholmes@gmail.com"/>
+    <hyperlink ref="J60" r:id="rId28" location="" tooltip="" display="flsolomon@ualr.edu"/>
+    <hyperlink ref="J61" r:id="rId29" location="" tooltip="" display="benrains@yahoo.com"/>
+    <hyperlink ref="J62" r:id="rId30" location="" tooltip="" display="abtreml@gmail.com"/>
+    <hyperlink ref="J64" r:id="rId31" location="" tooltip="" display="carlos_meredith@yahoo.com"/>
+    <hyperlink ref="J65" r:id="rId32" location="" tooltip="" display="lemips@gmail.com"/>
+    <hyperlink ref="J66" r:id="rId33" location="" tooltip="" display="rgrossesq@icloud.com"/>
+    <hyperlink ref="J68" r:id="rId34" location="" tooltip="" display="cprovost53@gmail.com"/>
+    <hyperlink ref="J69" r:id="rId35" location="" tooltip="" display="tweater6381@gmail.com"/>
+    <hyperlink ref="J70" r:id="rId36" location="" tooltip="" display="carol.carpenter@gmail.com"/>
+    <hyperlink ref="J71" r:id="rId37" location="" tooltip="" display="katherine.cushing@sjsu.edu"/>
+    <hyperlink ref="J72" r:id="rId38" location="" tooltip="" display="binghai@gmail.com"/>
+    <hyperlink ref="J73" r:id="rId39" location="" tooltip="" display="davidwkipp1@gmail.com"/>
+    <hyperlink ref="J74" r:id="rId40" location="" tooltip="" display="philcarpenter88@gmail.com"/>
+    <hyperlink ref="J75" r:id="rId41" location="" tooltip="" display="jimcushing90@gmail.com"/>
+    <hyperlink ref="J77" r:id="rId42" location="" tooltip="" display="janetliu@earthlink.net"/>
+    <hyperlink ref="J78" r:id="rId43" location="" tooltip="" display="nathaniel.melisso@gmail.com"/>
+    <hyperlink ref="J79" r:id="rId44" location="" tooltip="" display="nslavori@gmail.com"/>
+    <hyperlink ref="J88" r:id="rId45" location="" tooltip="" display="lavori@stanford.edu"/>
+    <hyperlink ref="J89" r:id="rId46" location="" tooltip="" display="eddie.hou@gmail.com"/>
+    <hyperlink ref="J90" r:id="rId47" location="" tooltip="" display="cmchiang@gmail.com"/>
+    <hyperlink ref="J92" r:id="rId48" location="" tooltip="" display="larseng151@gmail.com"/>
+    <hyperlink ref="J93" r:id="rId49" location="" tooltip="" display="andrewmobusiness@gmail.com"/>
+    <hyperlink ref="J94" r:id="rId50" location="" tooltip="" display="writingforlife.caldwell@gmail.com"/>
+    <hyperlink ref="J95" r:id="rId51" location="" tooltip="" display="sophiam2011@gmail.com"/>
+    <hyperlink ref="J96" r:id="rId52" location="" tooltip="" display="shiweili77@gmail.com"/>
+    <hyperlink ref="J97" r:id="rId53" location="" tooltip="" display="marc.naumann.de@gmail.com"/>
+    <hyperlink ref="J98" r:id="rId54" location="" tooltip="" display="ryanmb07@gmail.com"/>
+    <hyperlink ref="J100" r:id="rId55" location="" tooltip="" display="pjgaudreau@gmail.com"/>
+    <hyperlink ref="J101" r:id="rId56" location="" tooltip="" display="goktugcinar@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/data/final_data/manually_cleaned_data.xlsx
+++ b/data/final_data/manually_cleaned_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahgross/Desktop/W241/Final Project/Olive_Oil_Taste_Test/data/final_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CD54E9-3CA0-EF47-81FE-8BD6E1BDCCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2583A2EE-E6CA-6247-A74D-2CA329711136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10180" yWindow="600" windowWidth="18940" windowHeight="14900" xr2:uid="{49F459C7-6492-B94F-B44D-4BE8CD6D4D26}"/>
+    <workbookView xWindow="16300" yWindow="960" windowWidth="18940" windowHeight="14900" xr2:uid="{49F459C7-6492-B94F-B44D-4BE8CD6D4D26}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="239">
   <si>
     <t>admin</t>
   </si>
@@ -125,18 +125,6 @@
     <t xml:space="preserve">Onur </t>
   </si>
   <si>
-    <t>Irem</t>
-  </si>
-  <si>
-    <t>Umit</t>
-  </si>
-  <si>
-    <t>Sepideh</t>
-  </si>
-  <si>
-    <t>Amir</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dila </t>
   </si>
   <si>
@@ -744,6 +732,30 @@
   </si>
   <si>
     <t>sex</t>
+  </si>
+  <si>
+    <t>Lauren Hoffman</t>
+  </si>
+  <si>
+    <t>Erica Adler</t>
+  </si>
+  <si>
+    <t>Kelsey Platt</t>
+  </si>
+  <si>
+    <t>Caleb Upkins</t>
+  </si>
+  <si>
+    <t>kelseymplatt@gmail.com</t>
+  </si>
+  <si>
+    <t>laurenhoffman156@gmail.com</t>
+  </si>
+  <si>
+    <t>adler.erica.n@gmail.com / 610-348-7211</t>
+  </si>
+  <si>
+    <t>upkins@google.com</t>
   </si>
 </sst>
 </file>
@@ -1118,10 +1130,10 @@
   <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1145,19 +1157,19 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -1172,16 +1184,16 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L1" t="s">
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="N1" t="s">
         <v>2</v>
@@ -1199,13 +1211,13 @@
         <v>6</v>
       </c>
       <c r="S1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="T1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="U1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1216,37 +1228,37 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q2" t="s">
         <v>106</v>
-      </c>
-      <c r="G2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L2" t="s">
-        <v>159</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>110</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1275,31 +1287,31 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P3" t="s">
         <v>153</v>
       </c>
-      <c r="H3" t="s">
-        <v>154</v>
-      </c>
-      <c r="L3" t="s">
-        <v>172</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P3" t="s">
-        <v>157</v>
-      </c>
       <c r="Q3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1322,28 +1334,28 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K4">
         <v>5108333055</v>
       </c>
       <c r="L4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1352,13 +1364,13 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1381,37 +1393,37 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" t="s">
+        <v>155</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>152</v>
+      </c>
+      <c r="P5" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q5" t="s">
         <v>106</v>
-      </c>
-      <c r="G5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H5" t="s">
-        <v>154</v>
-      </c>
-      <c r="L5" t="s">
-        <v>159</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>156</v>
-      </c>
-      <c r="P5" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>110</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1440,31 +1452,31 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L6" t="s">
+        <v>151</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>152</v>
+      </c>
+      <c r="P6" t="s">
         <v>153</v>
       </c>
-      <c r="H6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>156</v>
-      </c>
-      <c r="P6" t="s">
-        <v>157</v>
-      </c>
       <c r="Q6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1487,22 +1499,22 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1511,19 +1523,19 @@
         <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="T7">
         <v>2</v>
@@ -1540,22 +1552,22 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1564,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -1593,37 +1605,37 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" t="s">
+        <v>155</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" t="s">
         <v>153</v>
       </c>
-      <c r="H9" t="s">
-        <v>154</v>
-      </c>
-      <c r="L9" t="s">
-        <v>159</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>156</v>
-      </c>
-      <c r="P9" t="s">
-        <v>157</v>
-      </c>
       <c r="Q9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -1646,37 +1658,37 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L10" t="s">
+        <v>155</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>156</v>
+      </c>
+      <c r="P10" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q10" t="s">
         <v>106</v>
-      </c>
-      <c r="H10" t="s">
-        <v>154</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L10" t="s">
-        <v>159</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10" t="s">
-        <v>160</v>
-      </c>
-      <c r="P10" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>110</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1705,31 +1717,31 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" t="s">
+        <v>155</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P11" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q11" t="s">
         <v>106</v>
-      </c>
-      <c r="G11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" t="s">
-        <v>154</v>
-      </c>
-      <c r="L11" t="s">
-        <v>159</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>110</v>
       </c>
       <c r="R11">
         <v>1</v>
@@ -1752,32 +1764,32 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K12">
         <v>3105980378</v>
       </c>
       <c r="L12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1786,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1824,23 +1836,23 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K13">
         <v>8052526229</v>
       </c>
       <c r="L13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1849,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -1881,13 +1893,13 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1896,13 +1908,13 @@
         <v>2</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R14">
         <v>1</v>
@@ -1925,37 +1937,37 @@
         <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q15" t="s">
         <v>106</v>
-      </c>
-      <c r="G15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H15" t="s">
-        <v>154</v>
-      </c>
-      <c r="L15" t="s">
-        <v>159</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P15" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>110</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1984,32 +1996,32 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q16" t="s">
         <v>106</v>
       </c>
-      <c r="G16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" t="s">
-        <v>159</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>110</v>
-      </c>
       <c r="R16">
         <v>1</v>
       </c>
@@ -2017,7 +2029,7 @@
         <v>2</v>
       </c>
       <c r="T16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -2034,13 +2046,13 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2049,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R17">
         <v>1</v>
@@ -2078,22 +2090,22 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2102,13 +2114,13 @@
         <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2131,22 +2143,22 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2155,13 +2167,13 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R19">
         <v>1</v>
@@ -2178,99 +2190,243 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>231</v>
+      </c>
+      <c r="C20" t="s">
+        <v>231</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L20" t="s">
+        <v>155</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P20" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q20" t="s">
         <v>106</v>
       </c>
-      <c r="Q20" t="s">
-        <v>110</v>
-      </c>
       <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>232</v>
+      </c>
+      <c r="C21" t="s">
+        <v>232</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="H21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L21" t="s">
+        <v>155</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P21" t="s">
+        <v>150</v>
       </c>
       <c r="Q21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
+        <v>108</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>233</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" t="s">
+        <v>233</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L22" t="s">
+        <v>155</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" t="s">
+        <v>150</v>
       </c>
       <c r="Q22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R22">
         <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>234</v>
+      </c>
+      <c r="C23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" t="s">
+        <v>234</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L23" t="s">
+        <v>162</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P23" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q23" t="s">
         <v>106</v>
       </c>
-      <c r="Q23" t="s">
-        <v>111</v>
-      </c>
       <c r="R23">
         <v>1</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Q24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2278,19 +2434,19 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Q25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R25">
         <v>1</v>
@@ -2298,19 +2454,19 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q26" t="s">
         <v>106</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>110</v>
       </c>
       <c r="R26">
         <v>1</v>
@@ -2318,19 +2474,19 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q27" t="s">
         <v>106</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>110</v>
       </c>
       <c r="R27">
         <v>1</v>
@@ -2338,34 +2494,34 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K28">
         <v>6509068526</v>
       </c>
       <c r="L28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2374,13 +2530,13 @@
         <v>1</v>
       </c>
       <c r="O28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R28">
         <v>1</v>
@@ -2397,34 +2553,34 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G29" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K29">
         <v>6506193869</v>
       </c>
       <c r="L29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -2433,13 +2589,13 @@
         <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R29">
         <v>1</v>
@@ -2456,38 +2612,38 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G30" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K30">
         <v>6504923663</v>
       </c>
       <c r="L30" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2496,13 +2652,13 @@
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q30" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -2519,34 +2675,34 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G31" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2555,13 +2711,13 @@
         <v>3</v>
       </c>
       <c r="O31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -2578,34 +2734,34 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2614,13 +2770,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q32" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R32">
         <v>1</v>
@@ -2637,49 +2793,49 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G33" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" t="s">
+        <v>150</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L33" t="s">
+        <v>155</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>166</v>
+      </c>
+      <c r="P33" t="s">
         <v>153</v>
       </c>
-      <c r="H33" t="s">
-        <v>154</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L33" t="s">
-        <v>159</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33" t="s">
-        <v>170</v>
-      </c>
-      <c r="P33" t="s">
-        <v>157</v>
-      </c>
       <c r="Q33" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R33">
         <v>1</v>
@@ -2696,34 +2852,34 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G34" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K34">
         <v>6507303174</v>
       </c>
       <c r="L34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2732,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R34">
         <v>1</v>
@@ -2755,49 +2911,49 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G35" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L35" t="s">
+        <v>168</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>169</v>
+      </c>
+      <c r="P35" t="s">
         <v>153</v>
       </c>
-      <c r="H35" t="s">
-        <v>154</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L35" t="s">
-        <v>172</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35" t="s">
-        <v>173</v>
-      </c>
-      <c r="P35" t="s">
-        <v>157</v>
-      </c>
       <c r="Q35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -2814,49 +2970,49 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G36" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L36" t="s">
+        <v>168</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>171</v>
+      </c>
+      <c r="P36" t="s">
         <v>153</v>
       </c>
-      <c r="H36" t="s">
-        <v>154</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="L36" t="s">
-        <v>172</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36" t="s">
-        <v>175</v>
-      </c>
-      <c r="P36" t="s">
-        <v>157</v>
-      </c>
       <c r="Q36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R36">
         <v>1</v>
@@ -2873,49 +3029,49 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" t="s">
+        <v>150</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L37" t="s">
+        <v>159</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>156</v>
+      </c>
+      <c r="P37" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q37" t="s">
         <v>107</v>
-      </c>
-      <c r="G37" t="s">
-        <v>153</v>
-      </c>
-      <c r="H37" t="s">
-        <v>154</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="L37" t="s">
-        <v>163</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37" t="s">
-        <v>160</v>
-      </c>
-      <c r="P37" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>111</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -2932,55 +3088,55 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G38" t="s">
+        <v>149</v>
+      </c>
+      <c r="H38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L38" t="s">
+        <v>151</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>156</v>
+      </c>
+      <c r="P38" t="s">
         <v>153</v>
       </c>
-      <c r="H38" t="s">
-        <v>154</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="L38" t="s">
-        <v>155</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38" t="s">
-        <v>160</v>
-      </c>
-      <c r="P38" t="s">
-        <v>157</v>
-      </c>
       <c r="Q38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R38">
         <v>1</v>
       </c>
       <c r="S38" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="T38">
         <v>2</v>
@@ -2991,43 +3147,43 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G39" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H39" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L39" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R39">
         <v>1</v>
@@ -3044,31 +3200,31 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -3077,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q40" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -3100,49 +3256,49 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G41" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L41" t="s">
+        <v>155</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>156</v>
+      </c>
+      <c r="P41" t="s">
         <v>153</v>
       </c>
-      <c r="H41" t="s">
-        <v>154</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L41" t="s">
-        <v>159</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41" t="s">
-        <v>160</v>
-      </c>
-      <c r="P41" t="s">
-        <v>157</v>
-      </c>
       <c r="Q41" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R41">
         <v>1</v>
@@ -3159,38 +3315,38 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G42" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H42" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K42">
         <v>6502294129</v>
       </c>
       <c r="L42" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -3199,19 +3355,19 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q42" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="T42">
         <v>2</v>
@@ -3222,34 +3378,34 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G43" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H43" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L43" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -3258,13 +3414,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q43" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -3281,37 +3437,37 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G44" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H44" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K44">
         <v>6503363980</v>
       </c>
       <c r="L44" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -3320,13 +3476,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P44" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q44" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -3343,49 +3499,49 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G45" t="s">
+        <v>149</v>
+      </c>
+      <c r="H45" t="s">
+        <v>150</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L45" t="s">
+        <v>179</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>180</v>
+      </c>
+      <c r="P45" t="s">
         <v>153</v>
       </c>
-      <c r="H45" t="s">
-        <v>154</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L45" t="s">
-        <v>183</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45" t="s">
-        <v>184</v>
-      </c>
-      <c r="P45" t="s">
-        <v>157</v>
-      </c>
       <c r="Q45" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R45">
         <v>1</v>
@@ -3402,34 +3558,34 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G46" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H46" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K46">
         <v>6505155803</v>
       </c>
       <c r="L46" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -3438,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P46" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -3461,49 +3617,49 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" t="s">
+        <v>149</v>
+      </c>
+      <c r="H47" t="s">
+        <v>150</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L47" t="s">
+        <v>182</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>156</v>
+      </c>
+      <c r="P47" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q47" t="s">
         <v>107</v>
-      </c>
-      <c r="G47" t="s">
-        <v>153</v>
-      </c>
-      <c r="H47" t="s">
-        <v>154</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="L47" t="s">
-        <v>186</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47" t="s">
-        <v>160</v>
-      </c>
-      <c r="P47" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>111</v>
       </c>
       <c r="R47">
         <v>1</v>
@@ -3520,49 +3676,49 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" t="s">
+        <v>149</v>
+      </c>
+      <c r="H48" t="s">
+        <v>150</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L48" t="s">
+        <v>151</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>213</v>
+      </c>
+      <c r="P48" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q48" t="s">
         <v>107</v>
-      </c>
-      <c r="G48" t="s">
-        <v>153</v>
-      </c>
-      <c r="H48" t="s">
-        <v>154</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L48" t="s">
-        <v>155</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48" t="s">
-        <v>217</v>
-      </c>
-      <c r="P48" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>111</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -3579,49 +3735,49 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G49" t="s">
+        <v>149</v>
+      </c>
+      <c r="H49" t="s">
+        <v>150</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L49" t="s">
+        <v>159</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>156</v>
+      </c>
+      <c r="P49" t="s">
         <v>153</v>
       </c>
-      <c r="H49" t="s">
-        <v>154</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L49" t="s">
-        <v>163</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49" t="s">
-        <v>160</v>
-      </c>
-      <c r="P49" t="s">
-        <v>157</v>
-      </c>
       <c r="Q49" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -3638,34 +3794,34 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H50" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L50" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -3674,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P50" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q50" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R50">
         <v>1</v>
@@ -3697,37 +3853,37 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G51" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H51" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K51">
         <v>5017721008</v>
       </c>
       <c r="L51" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -3736,13 +3892,13 @@
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q51" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R51">
         <v>1</v>
@@ -3759,34 +3915,34 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G52" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H52" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L52" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -3795,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P52" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R52">
         <v>1</v>
@@ -3818,49 +3974,49 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G53" t="s">
+        <v>149</v>
+      </c>
+      <c r="H53" t="s">
+        <v>150</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L53" t="s">
+        <v>155</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>156</v>
+      </c>
+      <c r="P53" t="s">
         <v>153</v>
       </c>
-      <c r="H53" t="s">
-        <v>154</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L53" t="s">
-        <v>159</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53" t="s">
-        <v>160</v>
-      </c>
-      <c r="P53" t="s">
-        <v>157</v>
-      </c>
       <c r="Q53" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R53">
         <v>1</v>
@@ -3877,19 +4033,19 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q54" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -3897,19 +4053,19 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q55" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R55">
         <v>1</v>
@@ -3917,49 +4073,49 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G56" t="s">
+        <v>149</v>
+      </c>
+      <c r="H56" t="s">
+        <v>150</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L56" t="s">
+        <v>159</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
+        <v>156</v>
+      </c>
+      <c r="P56" t="s">
         <v>153</v>
       </c>
-      <c r="H56" t="s">
-        <v>154</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="L56" t="s">
-        <v>163</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56" t="s">
-        <v>160</v>
-      </c>
-      <c r="P56" t="s">
-        <v>157</v>
-      </c>
       <c r="Q56" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R56">
         <v>1</v>
@@ -3976,49 +4132,49 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G57" t="s">
+        <v>149</v>
+      </c>
+      <c r="H57" t="s">
+        <v>150</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L57" t="s">
+        <v>182</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
+        <v>156</v>
+      </c>
+      <c r="P57" t="s">
         <v>153</v>
       </c>
-      <c r="H57" t="s">
-        <v>154</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L57" t="s">
-        <v>186</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57" t="s">
-        <v>160</v>
-      </c>
-      <c r="P57" t="s">
-        <v>157</v>
-      </c>
       <c r="Q57" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -4035,38 +4191,38 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G58" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H58" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K58">
         <v>5017438168</v>
       </c>
       <c r="L58" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -4075,13 +4231,13 @@
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P58" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q58" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R58">
         <v>1</v>
@@ -4098,34 +4254,34 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G59" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H59" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K59">
         <v>5013523151</v>
       </c>
       <c r="L59" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -4134,13 +4290,13 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P59" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q59" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -4157,49 +4313,49 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G60" t="s">
+        <v>149</v>
+      </c>
+      <c r="H60" t="s">
+        <v>150</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L60" t="s">
+        <v>159</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60" t="s">
+        <v>156</v>
+      </c>
+      <c r="P60" t="s">
         <v>153</v>
       </c>
-      <c r="H60" t="s">
-        <v>154</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="L60" t="s">
-        <v>163</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60" t="s">
-        <v>160</v>
-      </c>
-      <c r="P60" t="s">
-        <v>157</v>
-      </c>
       <c r="Q60" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R60">
         <v>1</v>
@@ -4216,37 +4372,37 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G61" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H61" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K61">
         <v>4083968049</v>
       </c>
       <c r="L61" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -4255,13 +4411,13 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P61" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q61" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R61">
         <v>1</v>
@@ -4278,34 +4434,34 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G62" t="s">
+        <v>149</v>
+      </c>
+      <c r="H62" t="s">
         <v>153</v>
       </c>
-      <c r="H62" t="s">
-        <v>157</v>
-      </c>
       <c r="J62" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L62" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -4314,13 +4470,13 @@
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P62" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q62" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R62">
         <v>1</v>
@@ -4337,34 +4493,34 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D63" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G63" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H63" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K63">
         <v>6505757583</v>
       </c>
       <c r="L63" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -4373,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P63" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -4396,34 +4552,34 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G64" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H64" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -4432,13 +4588,13 @@
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P64" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q64" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R64">
         <v>1</v>
@@ -4455,49 +4611,49 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G65" t="s">
+        <v>149</v>
+      </c>
+      <c r="H65" t="s">
+        <v>150</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L65" t="s">
+        <v>151</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>156</v>
+      </c>
+      <c r="P65" t="s">
         <v>153</v>
       </c>
-      <c r="H65" t="s">
-        <v>154</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L65" t="s">
-        <v>155</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65" t="s">
-        <v>160</v>
-      </c>
-      <c r="P65" t="s">
-        <v>157</v>
-      </c>
       <c r="Q65" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -4514,34 +4670,34 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G66" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H66" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L66" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -4550,13 +4706,13 @@
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P66" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q66" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R66">
         <v>1</v>
@@ -4573,37 +4729,37 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D67" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G67" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H67" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K67">
         <v>6502150745</v>
       </c>
       <c r="L67" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -4612,13 +4768,13 @@
         <v>2</v>
       </c>
       <c r="O67" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P67" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q67" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R67">
         <v>1</v>
@@ -4635,49 +4791,49 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D68" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G68" t="s">
+        <v>149</v>
+      </c>
+      <c r="H68" t="s">
+        <v>150</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L68" t="s">
+        <v>182</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68" t="s">
+        <v>171</v>
+      </c>
+      <c r="P68" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q68" t="s">
         <v>107</v>
-      </c>
-      <c r="G68" t="s">
-        <v>153</v>
-      </c>
-      <c r="H68" t="s">
-        <v>154</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L68" t="s">
-        <v>186</v>
-      </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68" t="s">
-        <v>175</v>
-      </c>
-      <c r="P68" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>111</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -4694,49 +4850,49 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D69" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G69" t="s">
+        <v>149</v>
+      </c>
+      <c r="H69" t="s">
+        <v>150</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L69" t="s">
+        <v>162</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
+        <v>156</v>
+      </c>
+      <c r="P69" t="s">
         <v>153</v>
       </c>
-      <c r="H69" t="s">
-        <v>154</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L69" t="s">
-        <v>166</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69" t="s">
-        <v>160</v>
-      </c>
-      <c r="P69" t="s">
-        <v>157</v>
-      </c>
       <c r="Q69" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R69">
         <v>1</v>
@@ -4753,55 +4909,55 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D70" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
+        <v>103</v>
+      </c>
+      <c r="G70" t="s">
+        <v>149</v>
+      </c>
+      <c r="H70" t="s">
+        <v>150</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L70" t="s">
+        <v>182</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>156</v>
+      </c>
+      <c r="P70" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q70" t="s">
         <v>107</v>
       </c>
-      <c r="G70" t="s">
-        <v>153</v>
-      </c>
-      <c r="H70" t="s">
-        <v>154</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="L70" t="s">
-        <v>186</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70" t="s">
-        <v>160</v>
-      </c>
-      <c r="P70" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>111</v>
-      </c>
       <c r="R70">
         <v>0</v>
       </c>
       <c r="S70" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="T70">
         <v>1</v>
@@ -4812,37 +4968,37 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G71" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H71" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K71">
         <v>4086216544</v>
       </c>
       <c r="L71" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -4851,13 +5007,13 @@
         <v>1</v>
       </c>
       <c r="O71" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q71" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R71">
         <v>0</v>
@@ -4874,22 +5030,22 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M72">
         <v>1</v>
       </c>
       <c r="Q72" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R72">
         <v>1</v>
@@ -4897,37 +5053,37 @@
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D73" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G73" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H73" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K73">
         <v>6509067750</v>
       </c>
       <c r="L73" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M73">
         <v>1</v>
@@ -4936,13 +5092,13 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P73" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q73" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R73">
         <v>0</v>
@@ -4959,37 +5115,37 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G74" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H74" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K74">
         <v>6508231884</v>
       </c>
       <c r="L74" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -4998,19 +5154,19 @@
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P74" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q74" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R74">
         <v>0</v>
       </c>
       <c r="S74" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="T74">
         <v>1</v>
@@ -5021,49 +5177,49 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D75" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G75" t="s">
+        <v>149</v>
+      </c>
+      <c r="H75" t="s">
+        <v>150</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L75" t="s">
+        <v>179</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
+        <v>156</v>
+      </c>
+      <c r="P75" t="s">
         <v>153</v>
       </c>
-      <c r="H75" t="s">
-        <v>154</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L75" t="s">
-        <v>183</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75" t="s">
-        <v>160</v>
-      </c>
-      <c r="P75" t="s">
-        <v>157</v>
-      </c>
       <c r="Q75" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R75">
         <v>0</v>
@@ -5072,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="T75" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="U75">
         <v>2</v>
@@ -5080,19 +5236,19 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q76" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R76">
         <v>0</v>
@@ -5100,19 +5256,19 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q77" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R77">
         <v>1</v>
@@ -5120,19 +5276,19 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q78" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R78">
         <v>1</v>
@@ -5140,19 +5296,19 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q79" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R79">
         <v>1</v>
@@ -5160,19 +5316,19 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q80" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R80">
         <v>1</v>
@@ -5180,19 +5336,19 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q81" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -5200,19 +5356,19 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q82" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R82">
         <v>1</v>
@@ -5220,19 +5376,19 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q83" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R83">
         <v>1</v>
@@ -5240,34 +5396,34 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D84" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G84" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H84" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L84" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -5276,13 +5432,13 @@
         <v>3</v>
       </c>
       <c r="O84" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P84" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q84" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -5299,49 +5455,49 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D85" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G85" t="s">
+        <v>149</v>
+      </c>
+      <c r="H85" t="s">
+        <v>150</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L85" t="s">
+        <v>151</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85" t="s">
+        <v>202</v>
+      </c>
+      <c r="P85" t="s">
         <v>153</v>
       </c>
-      <c r="H85" t="s">
-        <v>154</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L85" t="s">
-        <v>155</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-      <c r="O85" t="s">
-        <v>206</v>
-      </c>
-      <c r="P85" t="s">
-        <v>157</v>
-      </c>
       <c r="Q85" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R85">
         <v>1</v>
@@ -5358,49 +5514,49 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D86" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E86">
         <v>85</v>
       </c>
       <c r="F86" t="s">
+        <v>103</v>
+      </c>
+      <c r="G86" t="s">
+        <v>149</v>
+      </c>
+      <c r="H86" t="s">
+        <v>150</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L86" t="s">
+        <v>168</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86" t="s">
+        <v>169</v>
+      </c>
+      <c r="P86" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q86" t="s">
         <v>107</v>
-      </c>
-      <c r="G86" t="s">
-        <v>153</v>
-      </c>
-      <c r="H86" t="s">
-        <v>154</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="L86" t="s">
-        <v>172</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
-      <c r="O86" t="s">
-        <v>173</v>
-      </c>
-      <c r="P86" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>111</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -5417,34 +5573,34 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D87" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E87">
         <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G87" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H87" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K87">
         <v>4086448630</v>
       </c>
       <c r="L87" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -5453,13 +5609,13 @@
         <v>0</v>
       </c>
       <c r="O87" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P87" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q87" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R87">
         <v>1</v>
@@ -5476,34 +5632,34 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D88" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G88" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H88" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L88" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -5512,13 +5668,13 @@
         <v>0</v>
       </c>
       <c r="O88" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q88" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R88">
         <v>1</v>
@@ -5535,34 +5691,34 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D89" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E89">
         <v>88</v>
       </c>
       <c r="F89" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G89" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H89" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L89" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -5571,13 +5727,13 @@
         <v>3</v>
       </c>
       <c r="O89" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P89" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q89" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R89">
         <v>1</v>
@@ -5594,37 +5750,37 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D90" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E90">
         <v>89</v>
       </c>
       <c r="F90" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G90" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H90" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K90">
         <v>7088213039</v>
       </c>
       <c r="L90" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M90">
         <v>1</v>
@@ -5633,13 +5789,13 @@
         <v>0</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P90" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q90" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R90">
         <v>1</v>
@@ -5656,49 +5812,49 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D91" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E91">
         <v>90</v>
       </c>
       <c r="F91" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G91" t="s">
+        <v>149</v>
+      </c>
+      <c r="H91" t="s">
+        <v>150</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L91" t="s">
+        <v>162</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P91" t="s">
         <v>153</v>
       </c>
-      <c r="H91" t="s">
-        <v>154</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="L91" t="s">
-        <v>166</v>
-      </c>
-      <c r="M91">
-        <v>1</v>
-      </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="P91" t="s">
-        <v>157</v>
-      </c>
       <c r="Q91" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R91">
         <v>1</v>
@@ -5715,34 +5871,34 @@
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D92" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E92">
         <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G92" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H92" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L92" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M92">
         <v>1</v>
@@ -5751,13 +5907,13 @@
         <v>3</v>
       </c>
       <c r="O92" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P92" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q92" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -5774,49 +5930,49 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D93" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E93">
         <v>92</v>
       </c>
       <c r="F93" t="s">
+        <v>103</v>
+      </c>
+      <c r="G93" t="s">
+        <v>149</v>
+      </c>
+      <c r="H93" t="s">
+        <v>150</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L93" t="s">
+        <v>159</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93" t="s">
+        <v>209</v>
+      </c>
+      <c r="P93" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q93" t="s">
         <v>107</v>
-      </c>
-      <c r="G93" t="s">
-        <v>153</v>
-      </c>
-      <c r="H93" t="s">
-        <v>154</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="L93" t="s">
-        <v>163</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-      <c r="O93" t="s">
-        <v>213</v>
-      </c>
-      <c r="P93" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>111</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -5833,49 +5989,49 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D94" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E94">
         <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G94" t="s">
+        <v>149</v>
+      </c>
+      <c r="H94" t="s">
+        <v>150</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L94" t="s">
+        <v>155</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P94" t="s">
         <v>153</v>
       </c>
-      <c r="H94" t="s">
-        <v>154</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L94" t="s">
-        <v>159</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="N94">
-        <v>2</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="P94" t="s">
-        <v>157</v>
-      </c>
       <c r="Q94" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R94">
         <v>0</v>
@@ -5892,40 +6048,40 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E95">
         <v>94</v>
       </c>
       <c r="F95" t="s">
+        <v>103</v>
+      </c>
+      <c r="G95" t="s">
+        <v>149</v>
+      </c>
+      <c r="H95" t="s">
+        <v>150</v>
+      </c>
+      <c r="L95" t="s">
+        <v>155</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P95" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q95" t="s">
         <v>107</v>
-      </c>
-      <c r="G95" t="s">
-        <v>153</v>
-      </c>
-      <c r="H95" t="s">
-        <v>154</v>
-      </c>
-      <c r="L95" t="s">
-        <v>159</v>
-      </c>
-      <c r="M95">
-        <v>1</v>
-      </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
-      <c r="O95" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="P95" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>111</v>
       </c>
       <c r="R95">
         <v>1</v>
@@ -5942,49 +6098,49 @@
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E96">
         <v>95</v>
       </c>
       <c r="F96" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G96" t="s">
+        <v>149</v>
+      </c>
+      <c r="H96" t="s">
+        <v>150</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L96" t="s">
+        <v>155</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>180</v>
+      </c>
+      <c r="P96" t="s">
         <v>153</v>
       </c>
-      <c r="H96" t="s">
-        <v>154</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L96" t="s">
-        <v>159</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-      <c r="O96" t="s">
-        <v>184</v>
-      </c>
-      <c r="P96" t="s">
-        <v>157</v>
-      </c>
       <c r="Q96" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -6001,55 +6157,55 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D97" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E97">
         <v>96</v>
       </c>
       <c r="F97" t="s">
+        <v>103</v>
+      </c>
+      <c r="G97" t="s">
+        <v>149</v>
+      </c>
+      <c r="H97" t="s">
+        <v>150</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L97" t="s">
+        <v>155</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97" t="s">
+        <v>152</v>
+      </c>
+      <c r="P97" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q97" t="s">
         <v>107</v>
       </c>
-      <c r="G97" t="s">
-        <v>153</v>
-      </c>
-      <c r="H97" t="s">
-        <v>154</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L97" t="s">
-        <v>159</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <v>2</v>
-      </c>
-      <c r="O97" t="s">
-        <v>156</v>
-      </c>
-      <c r="P97" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>111</v>
-      </c>
       <c r="R97">
         <v>0</v>
       </c>
       <c r="S97" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="T97">
         <v>2</v>
@@ -6117,6 +6273,10 @@
     <hyperlink ref="J10" r:id="rId54" xr:uid="{9E565664-3C3F-3D4B-A378-7F409BBBAB72}"/>
     <hyperlink ref="J51" r:id="rId55" xr:uid="{19C4516E-A061-AD4F-ABDE-CEFB97331D0B}"/>
     <hyperlink ref="J44" r:id="rId56" xr:uid="{3ABDC2EA-833E-B048-983C-1B2734AE5C7B}"/>
+    <hyperlink ref="J20" r:id="rId57" xr:uid="{110BD5D2-5FD6-A541-B7EE-C89F8EF21074}"/>
+    <hyperlink ref="J21" r:id="rId58" xr:uid="{B4F5E004-1506-1F41-8BC4-51A7314E3B97}"/>
+    <hyperlink ref="J22" r:id="rId59" xr:uid="{3C09E360-3FB0-7745-86D5-636AFE9E4323}"/>
+    <hyperlink ref="J23" r:id="rId60" xr:uid="{ED3572D1-228C-BC4A-AF73-49606DF53EB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/final_data/manually_cleaned_data.xlsx
+++ b/data/final_data/manually_cleaned_data.xlsx
@@ -165,7 +165,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>alioral@windowslive.com</t>
@@ -188,7 +188,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>selinyucebilgin@gmail.com</t>
@@ -202,7 +202,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>alpyucebilgin@gmail.com</t>
@@ -219,7 +219,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>sezginmakbule@gmail.com</t>
@@ -242,7 +242,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">Semaermez@gmail.com </t>
@@ -259,7 +259,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">onurcansel@gmail.com </t>
@@ -339,7 +339,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>bpg263@nyu.edu</t>
@@ -353,7 +353,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>mayabrunton@gmail.com</t>
@@ -370,7 +370,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>natalief96@gmail.com</t>
@@ -387,7 +387,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>speakwithmo@gmail.com</t>
@@ -410,7 +410,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>Full167@gmail.com</t>
@@ -424,7 +424,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>way_ting@yahoo.com</t>
@@ -441,7 +441,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>dawen.tsien@gmail.com</t>
@@ -455,7 +455,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ehr@deltavbio.com</t>
@@ -490,7 +490,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>txiong096@gmail.com</t>
@@ -507,7 +507,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>nina_srinath@hotmail.com</t>
@@ -524,7 +524,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>krishnabrunton@gmail.com</t>
@@ -541,7 +541,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>cameroncbice@gmail.com</t>
@@ -555,7 +555,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>jroberts@stanford.edu</t>
@@ -581,7 +581,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>mylanpho@gmail.com</t>
@@ -598,7 +598,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>kathywoodburn@yahoo.com</t>
@@ -618,7 +618,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>emilymorozov@gmail.com</t>
@@ -635,7 +635,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>YGMOROZOV@UALR.EDU</t>
@@ -655,7 +655,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>Michial1@gmail.com</t>
@@ -669,7 +669,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>joannahall710@gmail.com</t>
@@ -686,7 +686,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>joshualholmes@gmail.com</t>
@@ -706,7 +706,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>flsolomon@ualr.edu</t>
@@ -723,7 +723,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>benrains@yahoo.com</t>
@@ -737,7 +737,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>abtreml@gmail.com</t>
@@ -754,7 +754,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>carlos_meredith@yahoo.com</t>
@@ -768,7 +768,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>lemips@gmail.com</t>
@@ -782,7 +782,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>rgrossesq@icloud.com</t>
@@ -805,7 +805,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>cprovost53@gmail.com</t>
@@ -819,7 +819,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>tweater6381@gmail.com</t>
@@ -833,7 +833,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>carol.carpenter@gmail.com</t>
@@ -850,7 +850,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>katherine.cushing@sjsu.edu</t>
@@ -864,7 +864,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>binghai@gmail.com</t>
@@ -878,7 +878,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>davidwkipp1@gmail.com</t>
@@ -892,7 +892,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>philcarpenter88@gmail.com</t>
@@ -909,7 +909,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>jimcushing90@gmail.com</t>
@@ -929,7 +929,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>janetliu@earthlink.net</t>
@@ -943,7 +943,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>nathaniel.melisso@gmail.com</t>
@@ -957,7 +957,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>nslavori@gmail.com</t>
@@ -1001,7 +1001,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>lavori@stanford.edu</t>
@@ -1015,7 +1015,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>eddie.hou@gmail.com</t>
@@ -1032,7 +1032,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>cmchiang@gmail.com</t>
@@ -1052,7 +1052,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>larseng151@gmail.com</t>
@@ -1066,7 +1066,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>andrewmobusiness@gmail.com</t>
@@ -1080,7 +1080,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>writingforlife.caldwell@gmail.com</t>
@@ -1094,7 +1094,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>sophiam2011@gmail.com</t>
@@ -1108,7 +1108,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>shiweili77@gmail.com</t>
@@ -1122,7 +1122,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>marc.naumann.de@gmail.com</t>
@@ -1139,7 +1139,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>ryanmb07@gmail.com</t>
@@ -1156,7 +1156,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>pjgaudreau@gmail.com</t>
@@ -1170,7 +1170,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Calibri"/>
       </rPr>
       <t>goktugcinar@gmail.com</t>
@@ -1203,16 +1203,22 @@
     <font>
       <u val="single"/>
       <sz val="12"/>
-      <color indexed="10"/>
+      <color indexed="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1225,16 +1231,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1251,13 +1257,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1280,6 +1286,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff0563c1"/>
     </indexedColors>
@@ -1480,17 +1487,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1518,10 +1525,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1769,12 +1776,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2061,7 +2068,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2089,10 +2096,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3674,7 +3681,7 @@
         <v>29</v>
       </c>
       <c r="R23" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S23" s="4">
         <v>2</v>

--- a/data/final_data/manually_cleaned_data.xlsx
+++ b/data/final_data/manually_cleaned_data.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahgross/Desktop/W241/Final Project/Olive_Oil_Taste_Test/data/final_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2583A2EE-E6CA-6247-A74D-2CA329711136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5557A600-F7E1-1748-B11C-DADA74C075FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16300" yWindow="960" windowWidth="18940" windowHeight="14900" xr2:uid="{49F459C7-6492-B94F-B44D-4BE8CD6D4D26}"/>
+    <workbookView xWindow="8820" yWindow="560" windowWidth="18940" windowHeight="14900" xr2:uid="{49F459C7-6492-B94F-B44D-4BE8CD6D4D26}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
-    <sheet name="Only Tested" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All!$A$1:$U$97</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="241">
   <si>
     <t>admin</t>
   </si>
@@ -756,6 +755,12 @@
   </si>
   <si>
     <t>upkins@google.com</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1130,10 +1135,10 @@
   <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="P85" sqref="P85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1142,13 +1147,14 @@
     <col min="2" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
     <col min="9" max="11" width="13.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" customWidth="1"/>
+    <col min="18" max="18" width="7.5" customWidth="1"/>
     <col min="19" max="20" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.33203125" customWidth="1"/>
@@ -1666,6 +1672,9 @@
       <c r="F10" t="s">
         <v>102</v>
       </c>
+      <c r="G10" t="s">
+        <v>240</v>
+      </c>
       <c r="H10" t="s">
         <v>150</v>
       </c>
@@ -1895,6 +1904,9 @@
       <c r="F14" t="s">
         <v>102</v>
       </c>
+      <c r="G14" t="s">
+        <v>240</v>
+      </c>
       <c r="H14" t="s">
         <v>150</v>
       </c>
@@ -2048,6 +2060,9 @@
       <c r="F17" t="s">
         <v>102</v>
       </c>
+      <c r="G17" t="s">
+        <v>240</v>
+      </c>
       <c r="H17" t="s">
         <v>150</v>
       </c>
@@ -2098,6 +2113,9 @@
       <c r="F18" t="s">
         <v>102</v>
       </c>
+      <c r="G18" t="s">
+        <v>240</v>
+      </c>
       <c r="H18" t="s">
         <v>150</v>
       </c>
@@ -2151,6 +2169,9 @@
       <c r="F19" t="s">
         <v>102</v>
       </c>
+      <c r="G19" t="s">
+        <v>240</v>
+      </c>
       <c r="H19" t="s">
         <v>150</v>
       </c>
@@ -2204,6 +2225,9 @@
       <c r="F20" t="s">
         <v>102</v>
       </c>
+      <c r="G20" t="s">
+        <v>240</v>
+      </c>
       <c r="H20" t="s">
         <v>150</v>
       </c>
@@ -2257,6 +2281,9 @@
       <c r="F21" t="s">
         <v>102</v>
       </c>
+      <c r="G21" t="s">
+        <v>240</v>
+      </c>
       <c r="H21" t="s">
         <v>150</v>
       </c>
@@ -2425,6 +2452,9 @@
       <c r="F24" t="s">
         <v>102</v>
       </c>
+      <c r="G24" t="s">
+        <v>240</v>
+      </c>
       <c r="Q24" t="s">
         <v>107</v>
       </c>
@@ -2445,6 +2475,9 @@
       <c r="F25" t="s">
         <v>102</v>
       </c>
+      <c r="G25" t="s">
+        <v>240</v>
+      </c>
       <c r="Q25" t="s">
         <v>107</v>
       </c>
@@ -2465,6 +2498,9 @@
       <c r="F26" t="s">
         <v>102</v>
       </c>
+      <c r="G26" t="s">
+        <v>240</v>
+      </c>
       <c r="Q26" t="s">
         <v>106</v>
       </c>
@@ -2485,6 +2521,9 @@
       <c r="F27" t="s">
         <v>102</v>
       </c>
+      <c r="G27" t="s">
+        <v>240</v>
+      </c>
       <c r="Q27" t="s">
         <v>106</v>
       </c>
@@ -4044,6 +4083,9 @@
       <c r="F54" t="s">
         <v>105</v>
       </c>
+      <c r="G54" t="s">
+        <v>240</v>
+      </c>
       <c r="Q54" t="s">
         <v>107</v>
       </c>
@@ -4064,6 +4106,9 @@
       <c r="F55" t="s">
         <v>105</v>
       </c>
+      <c r="G55" t="s">
+        <v>240</v>
+      </c>
       <c r="Q55" t="s">
         <v>107</v>
       </c>
@@ -5041,6 +5086,9 @@
       <c r="F72" t="s">
         <v>103</v>
       </c>
+      <c r="G72" t="s">
+        <v>240</v>
+      </c>
       <c r="M72">
         <v>1</v>
       </c>
@@ -5247,6 +5295,9 @@
       <c r="F76" t="s">
         <v>104</v>
       </c>
+      <c r="G76" t="s">
+        <v>240</v>
+      </c>
       <c r="Q76" t="s">
         <v>107</v>
       </c>
@@ -5267,6 +5318,9 @@
       <c r="F77" t="s">
         <v>104</v>
       </c>
+      <c r="G77" t="s">
+        <v>240</v>
+      </c>
       <c r="Q77" t="s">
         <v>107</v>
       </c>
@@ -5287,6 +5341,9 @@
       <c r="F78" t="s">
         <v>104</v>
       </c>
+      <c r="G78" t="s">
+        <v>240</v>
+      </c>
       <c r="Q78" t="s">
         <v>106</v>
       </c>
@@ -5307,6 +5364,9 @@
       <c r="F79" t="s">
         <v>104</v>
       </c>
+      <c r="G79" t="s">
+        <v>240</v>
+      </c>
       <c r="Q79" t="s">
         <v>107</v>
       </c>
@@ -5327,6 +5387,9 @@
       <c r="F80" t="s">
         <v>104</v>
       </c>
+      <c r="G80" t="s">
+        <v>240</v>
+      </c>
       <c r="Q80" t="s">
         <v>106</v>
       </c>
@@ -5347,6 +5410,9 @@
       <c r="F81" t="s">
         <v>104</v>
       </c>
+      <c r="G81" t="s">
+        <v>240</v>
+      </c>
       <c r="Q81" t="s">
         <v>107</v>
       </c>
@@ -5367,6 +5433,9 @@
       <c r="F82" t="s">
         <v>104</v>
       </c>
+      <c r="G82" t="s">
+        <v>240</v>
+      </c>
       <c r="Q82" t="s">
         <v>106</v>
       </c>
@@ -5387,10 +5456,37 @@
       <c r="F83" t="s">
         <v>104</v>
       </c>
+      <c r="G83" t="s">
+        <v>240</v>
+      </c>
+      <c r="L83" t="s">
+        <v>155</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83" t="s">
+        <v>239</v>
+      </c>
+      <c r="P83" t="s">
+        <v>150</v>
+      </c>
       <c r="Q83" t="s">
         <v>107</v>
       </c>
       <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>2</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+      <c r="U83">
         <v>1</v>
       </c>
     </row>
@@ -6060,7 +6156,7 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="H95" t="s">
         <v>150</v>
@@ -6280,16 +6376,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6447D2CB-BDB6-C143-B320-88646CD83FEB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/final_data/manually_cleaned_data.xlsx
+++ b/data/final_data/manually_cleaned_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahgross/Desktop/W241/Final Project/Olive_Oil_Taste_Test/data/final_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5557A600-F7E1-1748-B11C-DADA74C075FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1899F4-A908-2747-BDAF-EDE4AF8214B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8820" yWindow="560" windowWidth="18940" windowHeight="14900" xr2:uid="{49F459C7-6492-B94F-B44D-4BE8CD6D4D26}"/>
   </bookViews>
@@ -1135,10 +1135,10 @@
   <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P85" sqref="P85"/>
+      <selection pane="bottomRight" activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3211,6 +3211,9 @@
       </c>
       <c r="L39" t="s">
         <v>162</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
       </c>
       <c r="N39">
         <v>0</v>
